--- a/data/pca/factorExposure/factorExposure_2011-06-16.xlsx
+++ b/data/pca/factorExposure/factorExposure_2011-06-16.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
   <si>
     <t>factor1</t>
   </si>
@@ -35,6 +35,21 @@
   </si>
   <si>
     <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
+  </si>
+  <si>
+    <t>factor10</t>
+  </si>
+  <si>
+    <t>factor11</t>
+  </si>
+  <si>
+    <t>factor12</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -701,13 +716,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H104"/>
+  <dimension ref="A1:M104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -729,36 +744,66 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B2">
-        <v>-0.02108955397407825</v>
+        <v>-0.01745224875917555</v>
       </c>
       <c r="C2">
-        <v>-0.0104414252201403</v>
+        <v>0.0004860631576791814</v>
       </c>
       <c r="D2">
-        <v>-0.05984097068035015</v>
+        <v>-0.007627369149425443</v>
       </c>
       <c r="E2">
-        <v>-0.03712282594373434</v>
+        <v>-0.04389820396961694</v>
       </c>
       <c r="F2">
-        <v>-0.04020061043615256</v>
+        <v>0.002462721129193442</v>
       </c>
       <c r="G2">
-        <v>-0.003606772659707115</v>
+        <v>-0.03027152610058195</v>
       </c>
       <c r="H2">
-        <v>0.01769540862859321</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>0.01962353579564093</v>
+      </c>
+      <c r="I2">
+        <v>-0.01405698611389368</v>
+      </c>
+      <c r="J2">
+        <v>-0.04533470610494145</v>
+      </c>
+      <c r="K2">
+        <v>-0.05034573713325485</v>
+      </c>
+      <c r="L2">
+        <v>-0.005809258673139178</v>
+      </c>
+      <c r="M2">
+        <v>0.003016949549492439</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -781,36 +826,66 @@
       <c r="H3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B4">
-        <v>-0.07634549805028519</v>
+        <v>-0.1073874113579542</v>
       </c>
       <c r="C4">
-        <v>0.05414935206207421</v>
+        <v>-0.08052810525221642</v>
       </c>
       <c r="D4">
-        <v>-0.03044565947058147</v>
+        <v>-0.01846188314861313</v>
       </c>
       <c r="E4">
-        <v>-0.05343950787471798</v>
+        <v>-0.04988093596211789</v>
       </c>
       <c r="F4">
-        <v>-0.006801399987517387</v>
+        <v>-0.1349021529590233</v>
       </c>
       <c r="G4">
-        <v>-0.01451834885079075</v>
+        <v>0.02635722899940218</v>
       </c>
       <c r="H4">
-        <v>-0.002169816393345101</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>0.01050694917808175</v>
+      </c>
+      <c r="I4">
+        <v>-0.0500569550244498</v>
+      </c>
+      <c r="J4">
+        <v>0.04406444149417317</v>
+      </c>
+      <c r="K4">
+        <v>0.04440110996198716</v>
+      </c>
+      <c r="L4">
+        <v>0.06179842094854229</v>
+      </c>
+      <c r="M4">
+        <v>0.03577072299600451</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -833,296 +908,476 @@
       <c r="H5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B6">
-        <v>-0.1259172783841517</v>
+        <v>-0.1314741747339279</v>
       </c>
       <c r="C6">
-        <v>0.03009689097442918</v>
+        <v>-0.05375831276071628</v>
       </c>
       <c r="D6">
-        <v>-0.04866052301374494</v>
+        <v>-0.005573376205382196</v>
       </c>
       <c r="E6">
-        <v>-0.05952130338050703</v>
+        <v>-0.01046622478096258</v>
       </c>
       <c r="F6">
-        <v>0.1127784033670486</v>
+        <v>-0.01670763325888026</v>
       </c>
       <c r="G6">
-        <v>0.004175071479535393</v>
+        <v>0.1825430351860592</v>
       </c>
       <c r="H6">
-        <v>-0.2997381238035258</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>-0.1346047955184603</v>
+      </c>
+      <c r="I6">
+        <v>-0.2946222372780098</v>
+      </c>
+      <c r="J6">
+        <v>0.2826413891356691</v>
+      </c>
+      <c r="K6">
+        <v>-0.07826527545148249</v>
+      </c>
+      <c r="L6">
+        <v>-0.09319866451136553</v>
+      </c>
+      <c r="M6">
+        <v>0.03473931375585601</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B7">
-        <v>-0.07403184232056101</v>
+        <v>-0.07578146157012007</v>
       </c>
       <c r="C7">
-        <v>0.05830204017393703</v>
+        <v>-0.07252964602754405</v>
       </c>
       <c r="D7">
-        <v>-0.05281175123545254</v>
+        <v>-0.009779407898171296</v>
       </c>
       <c r="E7">
-        <v>-0.04645852164735988</v>
+        <v>-0.04925843934625036</v>
       </c>
       <c r="F7">
-        <v>0.02229450982297238</v>
+        <v>-0.02487337300057638</v>
       </c>
       <c r="G7">
-        <v>0.007254509871348799</v>
+        <v>-0.0002852059237788774</v>
       </c>
       <c r="H7">
-        <v>0.01725596061900321</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>0.01452634900321248</v>
+      </c>
+      <c r="I7">
+        <v>0.04358063551164787</v>
+      </c>
+      <c r="J7">
+        <v>0.01101392637836437</v>
+      </c>
+      <c r="K7">
+        <v>0.04508189273653478</v>
+      </c>
+      <c r="L7">
+        <v>0.09612822417654693</v>
+      </c>
+      <c r="M7">
+        <v>-0.02486816677391235</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B8">
-        <v>-0.03069314269564044</v>
+        <v>-0.03766801922014692</v>
       </c>
       <c r="C8">
-        <v>0.00835071434055464</v>
+        <v>-0.01223478440957242</v>
       </c>
       <c r="D8">
-        <v>-0.04564833521350024</v>
+        <v>-0.01429185939585904</v>
       </c>
       <c r="E8">
-        <v>-0.05201077419934858</v>
+        <v>-0.04915856010805254</v>
       </c>
       <c r="F8">
-        <v>-0.01340058687448098</v>
+        <v>-0.1026304480198877</v>
       </c>
       <c r="G8">
-        <v>-0.0668053055716027</v>
+        <v>0.02129353404444588</v>
       </c>
       <c r="H8">
-        <v>0.02714019156551923</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>0.001031414639203871</v>
+      </c>
+      <c r="I8">
+        <v>-0.05531158685315982</v>
+      </c>
+      <c r="J8">
+        <v>0.01536279022252596</v>
+      </c>
+      <c r="K8">
+        <v>0.01736634389925315</v>
+      </c>
+      <c r="L8">
+        <v>0.06667488926176851</v>
+      </c>
+      <c r="M8">
+        <v>0.03985272910580431</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B9">
-        <v>-0.07475553468007752</v>
+        <v>-0.08339017396205384</v>
       </c>
       <c r="C9">
-        <v>0.06462486682507877</v>
+        <v>-0.07363303446301361</v>
       </c>
       <c r="D9">
-        <v>-0.03379221698182171</v>
+        <v>0.003535348522217127</v>
       </c>
       <c r="E9">
-        <v>-0.04364217616061563</v>
+        <v>-0.03324202589249991</v>
       </c>
       <c r="F9">
-        <v>-0.02541576933977454</v>
+        <v>-0.1270409669470012</v>
       </c>
       <c r="G9">
-        <v>-0.0174587705972749</v>
+        <v>0.02086551803327382</v>
       </c>
       <c r="H9">
-        <v>0.0009925263949345142</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>0.007161659614006568</v>
+      </c>
+      <c r="I9">
+        <v>-0.0183211420950454</v>
+      </c>
+      <c r="J9">
+        <v>0.02998189374137101</v>
+      </c>
+      <c r="K9">
+        <v>0.009229410072307827</v>
+      </c>
+      <c r="L9">
+        <v>0.04809334413323534</v>
+      </c>
+      <c r="M9">
+        <v>-0.01085491172051529</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B10">
-        <v>-0.06362817796404813</v>
+        <v>-0.1127260980931025</v>
       </c>
       <c r="C10">
-        <v>-0.1363492051205955</v>
+        <v>0.1671165617774901</v>
       </c>
       <c r="D10">
-        <v>-0.05727557947054381</v>
+        <v>-0.002886480503335511</v>
       </c>
       <c r="E10">
-        <v>-0.03492041038852536</v>
+        <v>-0.05190898850574765</v>
       </c>
       <c r="F10">
-        <v>0.04207094907140956</v>
+        <v>0.009351591438170938</v>
       </c>
       <c r="G10">
-        <v>0.002855765119041075</v>
+        <v>0.007181055297263238</v>
       </c>
       <c r="H10">
-        <v>-0.03447197462890757</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>-0.008450272024892212</v>
+      </c>
+      <c r="I10">
+        <v>0.0614352535204162</v>
+      </c>
+      <c r="J10">
+        <v>-0.003209314285253452</v>
+      </c>
+      <c r="K10">
+        <v>0.005545390538785442</v>
+      </c>
+      <c r="L10">
+        <v>-0.001689233036334045</v>
+      </c>
+      <c r="M10">
+        <v>-0.1097736664231196</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B11">
-        <v>-0.07023057573471629</v>
+        <v>-0.06813572673569561</v>
       </c>
       <c r="C11">
-        <v>0.08764882792600873</v>
+        <v>-0.0725202836214363</v>
       </c>
       <c r="D11">
-        <v>-0.03560579578378649</v>
+        <v>0.03251113905109664</v>
       </c>
       <c r="E11">
-        <v>-0.01224374080509866</v>
+        <v>-0.01790140542599186</v>
       </c>
       <c r="F11">
-        <v>-0.04869178747715737</v>
+        <v>-0.114672759916115</v>
       </c>
       <c r="G11">
-        <v>-0.07372990757840561</v>
+        <v>0.003287234834140915</v>
       </c>
       <c r="H11">
-        <v>0.05895294258778192</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>-0.01683043676704069</v>
+      </c>
+      <c r="I11">
+        <v>0.06688001313636126</v>
+      </c>
+      <c r="J11">
+        <v>-0.05779512500728196</v>
+      </c>
+      <c r="K11">
+        <v>-0.03662521420938018</v>
+      </c>
+      <c r="L11">
+        <v>0.02131628079964005</v>
+      </c>
+      <c r="M11">
+        <v>-0.09282037771160792</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B12">
-        <v>-0.06692049981346164</v>
+        <v>-0.07154511386436772</v>
       </c>
       <c r="C12">
-        <v>0.05901621395530261</v>
+        <v>-0.06432868779728512</v>
       </c>
       <c r="D12">
-        <v>-0.02246626671861733</v>
+        <v>0.03052366146051227</v>
       </c>
       <c r="E12">
-        <v>-0.03197468307091089</v>
+        <v>-0.007566530194831201</v>
       </c>
       <c r="F12">
-        <v>-0.001262756618880388</v>
+        <v>-0.1236036363520676</v>
       </c>
       <c r="G12">
-        <v>-0.04931954373261924</v>
+        <v>-1.461096619385346e-05</v>
       </c>
       <c r="H12">
-        <v>0.05433214455086733</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>-0.03430329341606847</v>
+      </c>
+      <c r="I12">
+        <v>0.04061857725034182</v>
+      </c>
+      <c r="J12">
+        <v>-0.05989209933202543</v>
+      </c>
+      <c r="K12">
+        <v>-0.0306982954895762</v>
+      </c>
+      <c r="L12">
+        <v>0.05703272141770645</v>
+      </c>
+      <c r="M12">
+        <v>-0.1199411709918828</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B13">
-        <v>-0.05279617994373191</v>
+        <v>-0.04631492048919499</v>
       </c>
       <c r="C13">
-        <v>0.009154365417927635</v>
+        <v>-0.02959076444983472</v>
       </c>
       <c r="D13">
-        <v>0.004989235220598437</v>
+        <v>-0.02265122389164018</v>
       </c>
       <c r="E13">
-        <v>-0.01629252781602807</v>
+        <v>-0.01080883577791806</v>
       </c>
       <c r="F13">
-        <v>-0.05356223036022713</v>
+        <v>-0.04383097504100974</v>
       </c>
       <c r="G13">
-        <v>0.007805703291905777</v>
+        <v>-0.01241887819975692</v>
       </c>
       <c r="H13">
-        <v>0.01334409585529221</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>0.01611084738922357</v>
+      </c>
+      <c r="I13">
+        <v>-0.01013526679410753</v>
+      </c>
+      <c r="J13">
+        <v>0.01309361934312336</v>
+      </c>
+      <c r="K13">
+        <v>0.04452147242154166</v>
+      </c>
+      <c r="L13">
+        <v>0.05118985381991547</v>
+      </c>
+      <c r="M13">
+        <v>0.02473278798861182</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B14">
-        <v>-0.04873356614895501</v>
+        <v>-0.04310681882474631</v>
       </c>
       <c r="C14">
-        <v>0.02331662341011135</v>
+        <v>-0.03122947558938602</v>
       </c>
       <c r="D14">
-        <v>-0.02048485974584014</v>
+        <v>0.01142874501273785</v>
       </c>
       <c r="E14">
-        <v>-0.005405506553511635</v>
+        <v>-0.01647444916019411</v>
       </c>
       <c r="F14">
-        <v>0.009684644780749405</v>
+        <v>-0.06933277512095339</v>
       </c>
       <c r="G14">
-        <v>-0.008717809995764844</v>
+        <v>-0.01456995723724375</v>
       </c>
       <c r="H14">
-        <v>-0.06936333643288309</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>0.04230122436743398</v>
+      </c>
+      <c r="I14">
+        <v>-0.01493250195581</v>
+      </c>
+      <c r="J14">
+        <v>0.07117882074601914</v>
+      </c>
+      <c r="K14">
+        <v>0.03006400539536405</v>
+      </c>
+      <c r="L14">
+        <v>0.04712350722600553</v>
+      </c>
+      <c r="M14">
+        <v>0.02558173250692792</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B15">
-        <v>-0.03982476071578878</v>
+        <v>-0.02951245764587943</v>
       </c>
       <c r="C15">
-        <v>-0.007992896791924772</v>
+        <v>-0.008119211071077293</v>
       </c>
       <c r="D15">
-        <v>0.006967988485591739</v>
+        <v>-0.05774323132725618</v>
       </c>
       <c r="E15">
-        <v>-0.02054161277264447</v>
+        <v>-0.003105133967640788</v>
       </c>
       <c r="F15">
-        <v>-0.003047653694811795</v>
+        <v>-0.008987223417265511</v>
       </c>
       <c r="G15">
-        <v>0.01299333656224363</v>
+        <v>0.03666132621478142</v>
       </c>
       <c r="H15">
-        <v>-0.00687867431089009</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>0.04266475635933466</v>
+      </c>
+      <c r="I15">
+        <v>-0.02648850107595779</v>
+      </c>
+      <c r="J15">
+        <v>0.04287861007181996</v>
+      </c>
+      <c r="K15">
+        <v>0.04935016547842289</v>
+      </c>
+      <c r="L15">
+        <v>0.01608288240677089</v>
+      </c>
+      <c r="M15">
+        <v>-0.01571586491373446</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B16">
-        <v>-0.05817587776561164</v>
+        <v>-0.07251398144812073</v>
       </c>
       <c r="C16">
-        <v>0.083515144189219</v>
+        <v>-0.07939393927048738</v>
       </c>
       <c r="D16">
-        <v>-0.02884972549969901</v>
+        <v>0.02182471292504103</v>
       </c>
       <c r="E16">
-        <v>-0.03728719171542266</v>
+        <v>-0.01684650976129716</v>
       </c>
       <c r="F16">
-        <v>-0.04502020464158943</v>
+        <v>-0.113690152013809</v>
       </c>
       <c r="G16">
-        <v>-0.05048931484544025</v>
+        <v>-0.01033717592199796</v>
       </c>
       <c r="H16">
-        <v>0.05899385960358714</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>-0.02261705549929914</v>
+      </c>
+      <c r="I16">
+        <v>0.0527966557994075</v>
+      </c>
+      <c r="J16">
+        <v>-0.05245831627917166</v>
+      </c>
+      <c r="K16">
+        <v>-0.0305603219219176</v>
+      </c>
+      <c r="L16">
+        <v>0.0595115173107305</v>
+      </c>
+      <c r="M16">
+        <v>-0.08258357457207507</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1145,10 +1400,25 @@
       <c r="H17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1171,10 +1441,25 @@
       <c r="H18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1197,192 +1482,312 @@
       <c r="H19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B20">
-        <v>-0.04256947885521141</v>
+        <v>-0.04554488120580841</v>
       </c>
       <c r="C20">
-        <v>0.04592155225488114</v>
+        <v>-0.03217095614078383</v>
       </c>
       <c r="D20">
-        <v>-0.006503394615450845</v>
+        <v>-0.02441017173700143</v>
       </c>
       <c r="E20">
-        <v>-0.01865255953994507</v>
+        <v>-0.01823752802695579</v>
       </c>
       <c r="F20">
-        <v>-0.02795610329895714</v>
+        <v>-0.06647582197153816</v>
       </c>
       <c r="G20">
-        <v>-0.01999431489123479</v>
+        <v>-0.01060123687880524</v>
       </c>
       <c r="H20">
-        <v>0.01563405375859937</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>-0.01240895250587388</v>
+      </c>
+      <c r="I20">
+        <v>-0.003007081942645909</v>
+      </c>
+      <c r="J20">
+        <v>0.03876661687175539</v>
+      </c>
+      <c r="K20">
+        <v>0.01708623241174309</v>
+      </c>
+      <c r="L20">
+        <v>0.08417964815317965</v>
+      </c>
+      <c r="M20">
+        <v>-0.02992783126401283</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B21">
-        <v>-0.01752626606391711</v>
+        <v>-0.03002941183067418</v>
       </c>
       <c r="C21">
-        <v>0.0257456210703284</v>
+        <v>-0.02324995088533861</v>
       </c>
       <c r="D21">
-        <v>-0.002744279924841319</v>
+        <v>-0.002302703248833356</v>
       </c>
       <c r="E21">
-        <v>-0.05311327791202394</v>
+        <v>-0.02086248980003508</v>
       </c>
       <c r="F21">
-        <v>0.09064254242830502</v>
+        <v>-0.06107114054541329</v>
       </c>
       <c r="G21">
-        <v>-0.0009135958180203977</v>
+        <v>0.09225672227993463</v>
       </c>
       <c r="H21">
-        <v>-0.02395571533287883</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>-0.02736713593789684</v>
+      </c>
+      <c r="I21">
+        <v>0.04864807158219195</v>
+      </c>
+      <c r="J21">
+        <v>0.05043218280804874</v>
+      </c>
+      <c r="K21">
+        <v>0.08081893422598044</v>
+      </c>
+      <c r="L21">
+        <v>0.06173311048558865</v>
+      </c>
+      <c r="M21">
+        <v>0.003325874801512967</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B22">
-        <v>-0.01936594512069242</v>
+        <v>-0.04305051371453119</v>
       </c>
       <c r="C22">
-        <v>0.04419078348558245</v>
+        <v>-0.01419513145448797</v>
       </c>
       <c r="D22">
-        <v>0.1348333708585134</v>
+        <v>-0.65778210050374</v>
       </c>
       <c r="E22">
-        <v>-0.5153155718945588</v>
+        <v>-0.05455262653431408</v>
       </c>
       <c r="F22">
-        <v>-0.03661046260038101</v>
+        <v>0.06405071797514582</v>
       </c>
       <c r="G22">
-        <v>0.2852390616287815</v>
+        <v>-0.06838477545721279</v>
       </c>
       <c r="H22">
-        <v>0.1376419366557012</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>-0.1048154431898087</v>
+      </c>
+      <c r="I22">
+        <v>0.09676213287782466</v>
+      </c>
+      <c r="J22">
+        <v>0.01542050993454466</v>
+      </c>
+      <c r="K22">
+        <v>-0.01535889934561323</v>
+      </c>
+      <c r="L22">
+        <v>-0.02257484527374255</v>
+      </c>
+      <c r="M22">
+        <v>0.02489116225182915</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B23">
-        <v>-0.01836927578024669</v>
+        <v>-0.04325794430423599</v>
       </c>
       <c r="C23">
-        <v>0.04266852944903941</v>
+        <v>-0.01442501488578235</v>
       </c>
       <c r="D23">
-        <v>0.135220730967621</v>
+        <v>-0.6592714226349571</v>
       </c>
       <c r="E23">
-        <v>-0.5137140667748057</v>
+        <v>-0.05505759953272973</v>
       </c>
       <c r="F23">
-        <v>-0.03605743599818347</v>
+        <v>0.06094439437614453</v>
       </c>
       <c r="G23">
-        <v>0.2850823065701945</v>
+        <v>-0.06915649829244259</v>
       </c>
       <c r="H23">
-        <v>0.1349652591276233</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>-0.105398789440286</v>
+      </c>
+      <c r="I23">
+        <v>0.0936148334327663</v>
+      </c>
+      <c r="J23">
+        <v>0.01610362430625084</v>
+      </c>
+      <c r="K23">
+        <v>-0.01804617985062201</v>
+      </c>
+      <c r="L23">
+        <v>-0.02397111063208285</v>
+      </c>
+      <c r="M23">
+        <v>0.02660720096734426</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B24">
-        <v>-0.0739907656491226</v>
+        <v>-0.07683607054303462</v>
       </c>
       <c r="C24">
-        <v>0.07784740552561842</v>
+        <v>-0.0768862378517022</v>
       </c>
       <c r="D24">
-        <v>-0.03653332919234881</v>
+        <v>0.01811155388302478</v>
       </c>
       <c r="E24">
-        <v>-0.04004734059696751</v>
+        <v>-0.01920999577757048</v>
       </c>
       <c r="F24">
-        <v>-0.03070473876580249</v>
+        <v>-0.1143589027473139</v>
       </c>
       <c r="G24">
-        <v>-0.04959242273057875</v>
+        <v>-0.001535083079148174</v>
       </c>
       <c r="H24">
-        <v>0.0416713673181355</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>-0.02534274621569521</v>
+      </c>
+      <c r="I24">
+        <v>0.05039426422419927</v>
+      </c>
+      <c r="J24">
+        <v>-0.04794567495639591</v>
+      </c>
+      <c r="K24">
+        <v>-0.04647993578855059</v>
+      </c>
+      <c r="L24">
+        <v>0.03212427898385053</v>
+      </c>
+      <c r="M24">
+        <v>-0.08748730872358397</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B25">
-        <v>-0.06813658416326838</v>
+        <v>-0.07459705968385759</v>
       </c>
       <c r="C25">
-        <v>0.0417763258947781</v>
+        <v>-0.05107704443444602</v>
       </c>
       <c r="D25">
-        <v>-0.02991171493697439</v>
+        <v>0.03384391965650368</v>
       </c>
       <c r="E25">
-        <v>-0.04831607299574441</v>
+        <v>-0.01573583761868258</v>
       </c>
       <c r="F25">
-        <v>-0.04538445248631195</v>
+        <v>-0.1232177243897176</v>
       </c>
       <c r="G25">
-        <v>-0.06130135718511495</v>
+        <v>-0.01415266498208056</v>
       </c>
       <c r="H25">
-        <v>0.01155577678238955</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>-0.01905572442155506</v>
+      </c>
+      <c r="I25">
+        <v>0.04865988259114808</v>
+      </c>
+      <c r="J25">
+        <v>-0.04777032414218068</v>
+      </c>
+      <c r="K25">
+        <v>-0.07034917811693378</v>
+      </c>
+      <c r="L25">
+        <v>0.03623439888774842</v>
+      </c>
+      <c r="M25">
+        <v>-0.0939657857449879</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B26">
-        <v>-0.04287645272104593</v>
+        <v>-0.04287860294285133</v>
       </c>
       <c r="C26">
-        <v>0.03631010068240774</v>
+        <v>-0.022729228650521</v>
       </c>
       <c r="D26">
-        <v>-0.03773454845421197</v>
+        <v>-0.01277432262708336</v>
       </c>
       <c r="E26">
-        <v>-0.001722557210977718</v>
+        <v>-0.0002151985249298653</v>
       </c>
       <c r="F26">
-        <v>-0.01234035391435256</v>
+        <v>-0.03595824206023546</v>
       </c>
       <c r="G26">
-        <v>0.02686201935801578</v>
+        <v>-0.005411097281412076</v>
       </c>
       <c r="H26">
-        <v>0.01380567203776754</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>0.01343912063245702</v>
+      </c>
+      <c r="I26">
+        <v>0.03089598435618268</v>
+      </c>
+      <c r="J26">
+        <v>0.07550636240787212</v>
+      </c>
+      <c r="K26">
+        <v>0.1257600995929179</v>
+      </c>
+      <c r="L26">
+        <v>0.0710330824547396</v>
+      </c>
+      <c r="M26">
+        <v>-0.003787773123507691</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1405,244 +1810,394 @@
       <c r="H27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B28">
-        <v>-0.1114515905273286</v>
+        <v>-0.1434703638634853</v>
       </c>
       <c r="C28">
-        <v>-0.2964903408297508</v>
+        <v>0.2855353938763999</v>
       </c>
       <c r="D28">
-        <v>-0.02802298674918613</v>
+        <v>0.01332964335773414</v>
       </c>
       <c r="E28">
-        <v>0.005155613657318796</v>
+        <v>-0.02861200456044645</v>
       </c>
       <c r="F28">
-        <v>0.05473464982570102</v>
+        <v>-0.003786125486901537</v>
       </c>
       <c r="G28">
-        <v>0.00509704786649797</v>
+        <v>0.007757618163338344</v>
       </c>
       <c r="H28">
-        <v>0.05406564450876896</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>-0.01486762320634773</v>
+      </c>
+      <c r="I28">
+        <v>-0.0105546876149059</v>
+      </c>
+      <c r="J28">
+        <v>-0.004079686319721141</v>
+      </c>
+      <c r="K28">
+        <v>0.04015915899088451</v>
+      </c>
+      <c r="L28">
+        <v>0.01502654212501132</v>
+      </c>
+      <c r="M28">
+        <v>0.02764894968333444</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B29">
-        <v>-0.05318285765542199</v>
+        <v>-0.04407012611088865</v>
       </c>
       <c r="C29">
-        <v>0.0208799928497535</v>
+        <v>-0.02804357180930325</v>
       </c>
       <c r="D29">
-        <v>-0.007424273887475535</v>
+        <v>0.003103031411159014</v>
       </c>
       <c r="E29">
-        <v>-0.02497513594105641</v>
+        <v>-0.01806896339241719</v>
       </c>
       <c r="F29">
-        <v>-0.0002710761791352689</v>
+        <v>-0.06314293427707549</v>
       </c>
       <c r="G29">
-        <v>0.01479115764570166</v>
+        <v>-0.02428355973358332</v>
       </c>
       <c r="H29">
-        <v>-0.02030393268361574</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>0.02055695482118721</v>
+      </c>
+      <c r="I29">
+        <v>-0.00440522820041836</v>
+      </c>
+      <c r="J29">
+        <v>0.06580397666936448</v>
+      </c>
+      <c r="K29">
+        <v>0.02191211853486432</v>
+      </c>
+      <c r="L29">
+        <v>0.05128945803979985</v>
+      </c>
+      <c r="M29">
+        <v>0.008558032143414865</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B30">
-        <v>-0.1320146608354678</v>
+        <v>-0.09881822613837779</v>
       </c>
       <c r="C30">
-        <v>0.05796676740723845</v>
+        <v>-0.06462342980649552</v>
       </c>
       <c r="D30">
-        <v>-0.06822485337436482</v>
+        <v>-0.005602895217670553</v>
       </c>
       <c r="E30">
-        <v>-0.1200761423978197</v>
+        <v>-0.0282995001599129</v>
       </c>
       <c r="F30">
-        <v>0.01002330812080188</v>
+        <v>-0.2013398423231364</v>
       </c>
       <c r="G30">
-        <v>-0.1430433340164411</v>
+        <v>0.003400339635152017</v>
       </c>
       <c r="H30">
-        <v>0.04614362069983022</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>-0.2471456787226402</v>
+      </c>
+      <c r="I30">
+        <v>0.04656406517369331</v>
+      </c>
+      <c r="J30">
+        <v>0.1027159717907438</v>
+      </c>
+      <c r="K30">
+        <v>0.07094085402482418</v>
+      </c>
+      <c r="L30">
+        <v>0.152056175821674</v>
+      </c>
+      <c r="M30">
+        <v>0.3295444576012109</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B31">
-        <v>-0.05100689074803373</v>
+        <v>-0.03540978837244828</v>
       </c>
       <c r="C31">
-        <v>0.02704615010778387</v>
+        <v>-0.04673718567147805</v>
       </c>
       <c r="D31">
-        <v>0.008462039828130749</v>
+        <v>-0.005572561649651678</v>
       </c>
       <c r="E31">
-        <v>0.005695943947444365</v>
+        <v>0.009874392801950382</v>
       </c>
       <c r="F31">
-        <v>-0.01718662007474344</v>
+        <v>-0.02452377404041506</v>
       </c>
       <c r="G31">
-        <v>0.040054464055285</v>
+        <v>-0.02452029943272829</v>
       </c>
       <c r="H31">
-        <v>0.0006727701069264835</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>0.03761848167624199</v>
+      </c>
+      <c r="I31">
+        <v>-0.02281746161937212</v>
+      </c>
+      <c r="J31">
+        <v>0.009694505307966712</v>
+      </c>
+      <c r="K31">
+        <v>-0.002377253527635546</v>
+      </c>
+      <c r="L31">
+        <v>0.0358680085733839</v>
+      </c>
+      <c r="M31">
+        <v>-0.004756058159524713</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B32">
-        <v>-0.02155513906946215</v>
+        <v>-0.0414096595506173</v>
       </c>
       <c r="C32">
-        <v>-0.02186628755869319</v>
+        <v>0.004634155130150895</v>
       </c>
       <c r="D32">
-        <v>0.02306598538905918</v>
+        <v>0.01133151216210859</v>
       </c>
       <c r="E32">
-        <v>-0.08493292467537782</v>
+        <v>-0.004621565950194239</v>
       </c>
       <c r="F32">
-        <v>-0.06829483767208056</v>
+        <v>-0.08787431708746464</v>
       </c>
       <c r="G32">
-        <v>-0.03772985669223265</v>
+        <v>0.02559619860072377</v>
       </c>
       <c r="H32">
-        <v>0.05299717398161768</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>0.08093786787984715</v>
+      </c>
+      <c r="I32">
+        <v>-0.004329669120577117</v>
+      </c>
+      <c r="J32">
+        <v>-0.04282877195771866</v>
+      </c>
+      <c r="K32">
+        <v>0.04633827389759455</v>
+      </c>
+      <c r="L32">
+        <v>0.01976882981949868</v>
+      </c>
+      <c r="M32">
+        <v>0.1561096804889439</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B33">
-        <v>-0.1009202410180329</v>
+        <v>-0.0996970895099288</v>
       </c>
       <c r="C33">
-        <v>0.04340444262737968</v>
+        <v>-0.06839784141474743</v>
       </c>
       <c r="D33">
-        <v>0.001947724969106828</v>
+        <v>0.008874221447546743</v>
       </c>
       <c r="E33">
-        <v>-0.01444064642563086</v>
+        <v>0.01399409933377009</v>
       </c>
       <c r="F33">
-        <v>-0.0537095165361228</v>
+        <v>-0.08019243762835759</v>
       </c>
       <c r="G33">
-        <v>-0.02288404312173388</v>
+        <v>-0.01673601500085655</v>
       </c>
       <c r="H33">
-        <v>0.01578268609517212</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>0.01043116807235309</v>
+      </c>
+      <c r="I33">
+        <v>0.0243647155482015</v>
+      </c>
+      <c r="J33">
+        <v>0.05920241118653205</v>
+      </c>
+      <c r="K33">
+        <v>0.004879392395659276</v>
+      </c>
+      <c r="L33">
+        <v>0.002042267821901579</v>
+      </c>
+      <c r="M33">
+        <v>-0.006760737124668926</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B34">
-        <v>-0.05562992363955976</v>
+        <v>-0.06334115568081515</v>
       </c>
       <c r="C34">
-        <v>0.08106294587680546</v>
+        <v>-0.06416055775376865</v>
       </c>
       <c r="D34">
-        <v>-0.02039917935140832</v>
+        <v>0.02653358385859126</v>
       </c>
       <c r="E34">
-        <v>-0.03231520101132822</v>
+        <v>-0.01290670767029834</v>
       </c>
       <c r="F34">
-        <v>-0.0242732839336914</v>
+        <v>-0.1011580294404706</v>
       </c>
       <c r="G34">
-        <v>-0.03672584624654773</v>
+        <v>-0.004743158028185008</v>
       </c>
       <c r="H34">
-        <v>0.02711521464631259</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>-0.000464011243310434</v>
+      </c>
+      <c r="I34">
+        <v>0.04190036223731727</v>
+      </c>
+      <c r="J34">
+        <v>-0.02854051668956717</v>
+      </c>
+      <c r="K34">
+        <v>-0.04273855984360286</v>
+      </c>
+      <c r="L34">
+        <v>0.03837194900520554</v>
+      </c>
+      <c r="M34">
+        <v>-0.1151670280542287</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B35">
-        <v>-0.04253584638209566</v>
+        <v>-0.02650448667296682</v>
       </c>
       <c r="C35">
-        <v>0.03994450247712352</v>
+        <v>-0.02748922285070956</v>
       </c>
       <c r="D35">
-        <v>-0.006654686466041589</v>
+        <v>0.0006243793383267645</v>
       </c>
       <c r="E35">
-        <v>-0.0150059776467805</v>
+        <v>0.002623735961369389</v>
       </c>
       <c r="F35">
-        <v>-0.01253617980902911</v>
+        <v>-0.03469786553916996</v>
       </c>
       <c r="G35">
-        <v>-0.02456853255472186</v>
+        <v>-0.009763051158802126</v>
       </c>
       <c r="H35">
-        <v>0.01269151547330862</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>-0.007721740239140871</v>
+      </c>
+      <c r="I35">
+        <v>0.03197443456063467</v>
+      </c>
+      <c r="J35">
+        <v>0.005135027977212415</v>
+      </c>
+      <c r="K35">
+        <v>0.02483736327343187</v>
+      </c>
+      <c r="L35">
+        <v>0.07871329254002475</v>
+      </c>
+      <c r="M35">
+        <v>0.0003362444551065328</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
       <c r="A36" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B36">
-        <v>-0.03586288401163718</v>
+        <v>-0.03002301136240798</v>
       </c>
       <c r="C36">
-        <v>0.02022310981609501</v>
+        <v>-0.02145918632266435</v>
       </c>
       <c r="D36">
-        <v>-0.02408841541100747</v>
+        <v>-0.01357910227232601</v>
       </c>
       <c r="E36">
-        <v>-0.03272946697774227</v>
+        <v>-0.01211915314253344</v>
       </c>
       <c r="F36">
-        <v>-0.03380983518212462</v>
+        <v>-0.06893490435791925</v>
       </c>
       <c r="G36">
-        <v>-0.01398750969061522</v>
+        <v>-0.001680062426103509</v>
       </c>
       <c r="H36">
-        <v>-0.013373005677351</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>-0.004585087786082146</v>
+      </c>
+      <c r="I36">
+        <v>0.0003673858501548235</v>
+      </c>
+      <c r="J36">
+        <v>0.04834694713201956</v>
+      </c>
+      <c r="K36">
+        <v>0.02162574396441468</v>
+      </c>
+      <c r="L36">
+        <v>0.03581087783651499</v>
+      </c>
+      <c r="M36">
+        <v>-0.0363535986514545</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
       <c r="A37" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1665,114 +2220,189 @@
       <c r="H37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:8">
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
       <c r="A38" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B38">
-        <v>-0.04002183749229156</v>
+        <v>-0.02970312310942493</v>
       </c>
       <c r="C38">
-        <v>0.03356081911408527</v>
+        <v>-0.04696305765037712</v>
       </c>
       <c r="D38">
-        <v>0.02566167130027514</v>
+        <v>-0.02548041649049998</v>
       </c>
       <c r="E38">
-        <v>-0.03474500635477787</v>
+        <v>-0.001759118161038447</v>
       </c>
       <c r="F38">
-        <v>-0.01620059953478877</v>
+        <v>0.0489225056620742</v>
       </c>
       <c r="G38">
-        <v>-0.01130650444671129</v>
+        <v>-0.05157577898787037</v>
       </c>
       <c r="H38">
-        <v>0.04320540066385681</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>-0.01953078360451876</v>
+      </c>
+      <c r="I38">
+        <v>0.05840241601797618</v>
+      </c>
+      <c r="J38">
+        <v>0.04743238997236146</v>
+      </c>
+      <c r="K38">
+        <v>0.1090865983785372</v>
+      </c>
+      <c r="L38">
+        <v>-0.05446790661951938</v>
+      </c>
+      <c r="M38">
+        <v>0.1215568024587457</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
       <c r="A39" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B39">
-        <v>-0.09810820993160944</v>
+        <v>-0.09916155813810967</v>
       </c>
       <c r="C39">
-        <v>0.09942657978681549</v>
+        <v>-0.09451162140419334</v>
       </c>
       <c r="D39">
-        <v>-0.01610904102932708</v>
+        <v>0.08451851350494415</v>
       </c>
       <c r="E39">
-        <v>-0.03225097688452135</v>
+        <v>0.01510292030579622</v>
       </c>
       <c r="F39">
-        <v>-0.02013249284264002</v>
+        <v>-0.1568870550656208</v>
       </c>
       <c r="G39">
-        <v>-0.09084434303977508</v>
+        <v>-0.06919258798362242</v>
       </c>
       <c r="H39">
-        <v>0.1220015055555968</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>-0.11273577654138</v>
+      </c>
+      <c r="I39">
+        <v>0.09479681828718932</v>
+      </c>
+      <c r="J39">
+        <v>-0.1405367399212549</v>
+      </c>
+      <c r="K39">
+        <v>-0.06794141466406589</v>
+      </c>
+      <c r="L39">
+        <v>0.1351271161110126</v>
+      </c>
+      <c r="M39">
+        <v>0.0712955853234777</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
       <c r="A40" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B40">
-        <v>-0.05235910357989226</v>
+        <v>-0.03685540475086114</v>
       </c>
       <c r="C40">
-        <v>0.04595478196202625</v>
+        <v>-0.05727091146043423</v>
       </c>
       <c r="D40">
-        <v>0.05334103737927757</v>
+        <v>-0.04979540632008477</v>
       </c>
       <c r="E40">
-        <v>-0.1446379869381628</v>
+        <v>0.004295195374654266</v>
       </c>
       <c r="F40">
-        <v>-0.0667033269650969</v>
+        <v>-0.1161203083834835</v>
       </c>
       <c r="G40">
-        <v>-0.08147672244278498</v>
+        <v>0.07275725234023417</v>
       </c>
       <c r="H40">
-        <v>0.121161110935322</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>-0.01162142726034562</v>
+      </c>
+      <c r="I40">
+        <v>0.1037087905672816</v>
+      </c>
+      <c r="J40">
+        <v>0.01987818291536277</v>
+      </c>
+      <c r="K40">
+        <v>0.1265832716697945</v>
+      </c>
+      <c r="L40">
+        <v>-0.02234763867337218</v>
+      </c>
+      <c r="M40">
+        <v>0.0209060970544385</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
       <c r="A41" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B41">
-        <v>-0.04602482377709349</v>
+        <v>-0.03807866747662528</v>
       </c>
       <c r="C41">
-        <v>0.05002979118332752</v>
+        <v>-0.03621727867654218</v>
       </c>
       <c r="D41">
-        <v>-0.01011019986702174</v>
+        <v>0.01674856597578887</v>
       </c>
       <c r="E41">
-        <v>-0.001134886504123923</v>
+        <v>-0.0001271719904777982</v>
       </c>
       <c r="F41">
-        <v>-0.02810601437439842</v>
+        <v>-0.01659181099418664</v>
       </c>
       <c r="G41">
-        <v>-0.01018035218512435</v>
+        <v>-0.02717594251895471</v>
       </c>
       <c r="H41">
-        <v>0.03305550835791327</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>0.005976369048529203</v>
+      </c>
+      <c r="I41">
+        <v>0.01444531861343004</v>
+      </c>
+      <c r="J41">
+        <v>0.002896560448940463</v>
+      </c>
+      <c r="K41">
+        <v>0.04618452504114433</v>
+      </c>
+      <c r="L41">
+        <v>0.01494521636094297</v>
+      </c>
+      <c r="M41">
+        <v>-0.02736586536954795</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
       <c r="A42" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1795,62 +2425,107 @@
       <c r="H42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:8">
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
       <c r="A43" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B43">
-        <v>-0.05894133659347649</v>
+        <v>-0.05146528920422323</v>
       </c>
       <c r="C43">
-        <v>0.04224438860683645</v>
+        <v>-0.04657555082774219</v>
       </c>
       <c r="D43">
-        <v>-0.02452280047254213</v>
+        <v>-0.01273215012185052</v>
       </c>
       <c r="E43">
-        <v>-0.03144012815300441</v>
+        <v>-0.01252377655681105</v>
       </c>
       <c r="F43">
-        <v>-0.009724036151710771</v>
+        <v>-0.01433143022015195</v>
       </c>
       <c r="G43">
-        <v>0.01018947450260557</v>
+        <v>-0.05084717872101827</v>
       </c>
       <c r="H43">
-        <v>0.02221038468199546</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>-0.01430098581699072</v>
+      </c>
+      <c r="I43">
+        <v>0.0043348844579304</v>
+      </c>
+      <c r="J43">
+        <v>-0.005309819589105213</v>
+      </c>
+      <c r="K43">
+        <v>0.02189964561238877</v>
+      </c>
+      <c r="L43">
+        <v>0.02093631597359323</v>
+      </c>
+      <c r="M43">
+        <v>-0.01517410193474242</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
       <c r="A44" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B44">
-        <v>-0.05215973064797989</v>
+        <v>-0.0835286990245937</v>
       </c>
       <c r="C44">
-        <v>0.009853076529510688</v>
+        <v>-0.05718736587687267</v>
       </c>
       <c r="D44">
-        <v>-0.06770878587130084</v>
+        <v>-0.07219709223232594</v>
       </c>
       <c r="E44">
-        <v>-0.1248969901023441</v>
+        <v>-0.09961329460958981</v>
       </c>
       <c r="F44">
-        <v>-0.0404273600337573</v>
+        <v>-0.167903166534333</v>
       </c>
       <c r="G44">
-        <v>-0.1184049253990572</v>
+        <v>-0.00474977632634097</v>
       </c>
       <c r="H44">
-        <v>0.01769729935469845</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>0.01572876031310528</v>
+      </c>
+      <c r="I44">
+        <v>0.09329159442345121</v>
+      </c>
+      <c r="J44">
+        <v>0.003245587521050581</v>
+      </c>
+      <c r="K44">
+        <v>0.02251533625803194</v>
+      </c>
+      <c r="L44">
+        <v>0.03904811712033141</v>
+      </c>
+      <c r="M44">
+        <v>0.07202479875080542</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
       <c r="A45" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1873,296 +2548,476 @@
       <c r="H45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:8">
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
       <c r="A46" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B46">
-        <v>-0.02143324166128024</v>
+        <v>-0.0323110096558934</v>
       </c>
       <c r="C46">
-        <v>0.04303554632639427</v>
+        <v>-0.03911173664145778</v>
       </c>
       <c r="D46">
-        <v>-0.01203433626152276</v>
+        <v>-0.04091044039084564</v>
       </c>
       <c r="E46">
-        <v>-0.03882216015195658</v>
+        <v>-0.03714478252852724</v>
       </c>
       <c r="F46">
-        <v>-0.007034035963292549</v>
+        <v>-0.0360864693655906</v>
       </c>
       <c r="G46">
-        <v>0.009361321983267066</v>
+        <v>0.01748390005808879</v>
       </c>
       <c r="H46">
-        <v>0.01030171567171783</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>0.04959010444961452</v>
+      </c>
+      <c r="I46">
+        <v>0.001209547193163159</v>
+      </c>
+      <c r="J46">
+        <v>0.07823427833827822</v>
+      </c>
+      <c r="K46">
+        <v>0.04938251574182224</v>
+      </c>
+      <c r="L46">
+        <v>0.05911756677209754</v>
+      </c>
+      <c r="M46">
+        <v>-0.01377380798167245</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
       <c r="A47" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B47">
-        <v>-0.02850584354762975</v>
+        <v>-0.04662807152254297</v>
       </c>
       <c r="C47">
-        <v>-0.0002152066835863617</v>
+        <v>-0.02854841395689235</v>
       </c>
       <c r="D47">
-        <v>0.01624033439472273</v>
+        <v>-0.01920831032982545</v>
       </c>
       <c r="E47">
-        <v>-0.07363755379414792</v>
+        <v>-0.008708316765031428</v>
       </c>
       <c r="F47">
-        <v>-0.02493236516601036</v>
+        <v>-0.04459268894851592</v>
       </c>
       <c r="G47">
-        <v>-0.002545822593135481</v>
+        <v>-0.01546824462981133</v>
       </c>
       <c r="H47">
-        <v>-0.04162075694233178</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>-0.007921616465806062</v>
+      </c>
+      <c r="I47">
+        <v>0.01076269561042649</v>
+      </c>
+      <c r="J47">
+        <v>0.05655192007633404</v>
+      </c>
+      <c r="K47">
+        <v>0.007351715203065454</v>
+      </c>
+      <c r="L47">
+        <v>0.0216949552218016</v>
+      </c>
+      <c r="M47">
+        <v>-0.04420185712751995</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
       <c r="A48" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B48">
-        <v>-0.03359800975415866</v>
+        <v>-0.04158668611703682</v>
       </c>
       <c r="C48">
-        <v>0.02956613401714288</v>
+        <v>-0.02106928433996193</v>
       </c>
       <c r="D48">
-        <v>-0.001676569853585207</v>
+        <v>-0.0111082287456183</v>
       </c>
       <c r="E48">
-        <v>-0.05130205713840912</v>
+        <v>-0.00203564732863895</v>
       </c>
       <c r="F48">
-        <v>-0.02707316821458716</v>
+        <v>-0.07342129515968006</v>
       </c>
       <c r="G48">
-        <v>0.02480374346615581</v>
+        <v>0.03910854712255454</v>
       </c>
       <c r="H48">
-        <v>0.007793759679624767</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>0.003207909372786864</v>
+      </c>
+      <c r="I48">
+        <v>-0.001270838245505988</v>
+      </c>
+      <c r="J48">
+        <v>0.02504593096072289</v>
+      </c>
+      <c r="K48">
+        <v>0.01083877863143512</v>
+      </c>
+      <c r="L48">
+        <v>0.07424785971743018</v>
+      </c>
+      <c r="M48">
+        <v>-0.02931343233711319</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
       <c r="A49" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B49">
-        <v>-0.2032973679601419</v>
+        <v>-0.2255244990393908</v>
       </c>
       <c r="C49">
-        <v>0.1211741571879934</v>
+        <v>-0.07573756086641864</v>
       </c>
       <c r="D49">
-        <v>-0.0794048805210075</v>
+        <v>0.05372685992043617</v>
       </c>
       <c r="E49">
-        <v>0.06063310271325215</v>
+        <v>-0.02873734398749476</v>
       </c>
       <c r="F49">
-        <v>0.1902265467013029</v>
+        <v>0.2452891108510145</v>
       </c>
       <c r="G49">
-        <v>-0.03721150308051643</v>
+        <v>0.1383931875440292</v>
       </c>
       <c r="H49">
-        <v>0.01015878507612698</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>-0.04685248487015604</v>
+      </c>
+      <c r="I49">
+        <v>0.1613925690950108</v>
+      </c>
+      <c r="J49">
+        <v>-0.08788786416544889</v>
+      </c>
+      <c r="K49">
+        <v>-0.1405407426167464</v>
+      </c>
+      <c r="L49">
+        <v>-0.06938873260296415</v>
+      </c>
+      <c r="M49">
+        <v>-0.09346686977790862</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
       <c r="A50" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B50">
-        <v>-0.05576540396397379</v>
+        <v>-0.0434717730694035</v>
       </c>
       <c r="C50">
-        <v>0.02670737353082392</v>
+        <v>-0.04359775988198713</v>
       </c>
       <c r="D50">
-        <v>0.003977919765566346</v>
+        <v>-0.003072157787453854</v>
       </c>
       <c r="E50">
-        <v>-0.0247821836990379</v>
+        <v>0.01241042975800749</v>
       </c>
       <c r="F50">
-        <v>-0.04813094815480239</v>
+        <v>-0.04765966324202683</v>
       </c>
       <c r="G50">
-        <v>0.04475356863962729</v>
+        <v>-0.03167327314632511</v>
       </c>
       <c r="H50">
-        <v>-0.03071720004998256</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>0.01834739388822879</v>
+      </c>
+      <c r="I50">
+        <v>-0.02017046159808821</v>
+      </c>
+      <c r="J50">
+        <v>0.05735834518002558</v>
+      </c>
+      <c r="K50">
+        <v>0.01365203524352132</v>
+      </c>
+      <c r="L50">
+        <v>0.02581912803009263</v>
+      </c>
+      <c r="M50">
+        <v>0.02063861703017735</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
       <c r="A51" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B51">
-        <v>-0.03078160114202781</v>
+        <v>-0.02933415629045268</v>
       </c>
       <c r="C51">
-        <v>0.0122664259861084</v>
+        <v>-0.005306401281512352</v>
       </c>
       <c r="D51">
-        <v>-0.0002399451859602419</v>
+        <v>0.001583834580507571</v>
       </c>
       <c r="E51">
-        <v>-0.01180961216933234</v>
+        <v>-0.01932792750441495</v>
       </c>
       <c r="F51">
-        <v>0.003182409140924849</v>
+        <v>0.01743154764650174</v>
       </c>
       <c r="G51">
-        <v>-0.01807655820530146</v>
+        <v>-0.008895512546906631</v>
       </c>
       <c r="H51">
-        <v>0.01247569508655206</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>-0.01769565208414531</v>
+      </c>
+      <c r="I51">
+        <v>0.01487097269195641</v>
+      </c>
+      <c r="J51">
+        <v>-0.05338737995586287</v>
+      </c>
+      <c r="K51">
+        <v>-0.07156200524323929</v>
+      </c>
+      <c r="L51">
+        <v>-0.005857674828430065</v>
+      </c>
+      <c r="M51">
+        <v>0.005721065112502687</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
       <c r="A52" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>-0.02091890301119303</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>-0.01028262311045302</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>0.01287881624680749</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>-0.004428214604918034</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>-0.008839990568729906</v>
       </c>
       <c r="G52">
-        <v>0</v>
+        <v>-0.02017110327962699</v>
       </c>
       <c r="H52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>1.170516072403448e-05</v>
+      </c>
+      <c r="I52">
+        <v>-0.005641873589177401</v>
+      </c>
+      <c r="J52">
+        <v>-0.01444850186051998</v>
+      </c>
+      <c r="K52">
+        <v>0.005334500660860038</v>
+      </c>
+      <c r="L52">
+        <v>0.009802199654975514</v>
+      </c>
+      <c r="M52">
+        <v>0.02930861280983416</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
       <c r="A53" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B53">
-        <v>-0.1677792716486596</v>
+        <v>-0.1553453023544487</v>
       </c>
       <c r="C53">
-        <v>0.01375176015683324</v>
+        <v>-0.04937533204063692</v>
       </c>
       <c r="D53">
-        <v>-0.01639174250073405</v>
+        <v>0.009496854834597484</v>
       </c>
       <c r="E53">
-        <v>0.0817212109945821</v>
+        <v>0.009292214538966146</v>
       </c>
       <c r="F53">
-        <v>-0.2649419709744901</v>
+        <v>0.04927533651413552</v>
       </c>
       <c r="G53">
-        <v>0.02279016150686397</v>
+        <v>-0.2384391069013034</v>
       </c>
       <c r="H53">
-        <v>-0.02705005552674135</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>0.1161789608555103</v>
+      </c>
+      <c r="I53">
+        <v>-0.03948587972749825</v>
+      </c>
+      <c r="J53">
+        <v>0.07129484175488322</v>
+      </c>
+      <c r="K53">
+        <v>-0.02193159254966861</v>
+      </c>
+      <c r="L53">
+        <v>-0.06987947954113975</v>
+      </c>
+      <c r="M53">
+        <v>0.1023333917167601</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
       <c r="A54" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B54">
-        <v>-0.04584902521808337</v>
+        <v>-0.05767469385412879</v>
       </c>
       <c r="C54">
-        <v>0.03105622216389485</v>
+        <v>-0.03630047364291746</v>
       </c>
       <c r="D54">
-        <v>-0.0263249067403416</v>
+        <v>-0.01556517283285577</v>
       </c>
       <c r="E54">
-        <v>-0.04776805848606066</v>
+        <v>-0.02774500435415011</v>
       </c>
       <c r="F54">
-        <v>-0.01720167683763248</v>
+        <v>-0.1202185565907935</v>
       </c>
       <c r="G54">
-        <v>-0.003457519161929432</v>
+        <v>0.03262893697332311</v>
       </c>
       <c r="H54">
-        <v>0.006911134896487827</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>0.03686623164292571</v>
+      </c>
+      <c r="I54">
+        <v>-0.06214746352036751</v>
+      </c>
+      <c r="J54">
+        <v>0.06511776994811404</v>
+      </c>
+      <c r="K54">
+        <v>0.09130582796448478</v>
+      </c>
+      <c r="L54">
+        <v>0.06508576162578199</v>
+      </c>
+      <c r="M54">
+        <v>-0.02859236500217745</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
       <c r="A55" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B55">
-        <v>-0.09078237241167969</v>
+        <v>-0.0868676142881098</v>
       </c>
       <c r="C55">
-        <v>0.001599321653669309</v>
+        <v>-0.04196366759782838</v>
       </c>
       <c r="D55">
-        <v>-0.01111178633286816</v>
+        <v>0.0270061525009659</v>
       </c>
       <c r="E55">
-        <v>0.01954300142710455</v>
+        <v>-0.002642085879305432</v>
       </c>
       <c r="F55">
-        <v>-0.2278048684988362</v>
+        <v>-0.02074443239096354</v>
       </c>
       <c r="G55">
-        <v>0.03391264408056914</v>
+        <v>-0.1529838004304983</v>
       </c>
       <c r="H55">
-        <v>-0.04445397015950699</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>0.08723168551432424</v>
+      </c>
+      <c r="I55">
+        <v>-0.02547775210903715</v>
+      </c>
+      <c r="J55">
+        <v>0.05525253951523496</v>
+      </c>
+      <c r="K55">
+        <v>-0.02556031065487705</v>
+      </c>
+      <c r="L55">
+        <v>-0.04252159908408077</v>
+      </c>
+      <c r="M55">
+        <v>0.01709168123112987</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
       <c r="A56" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B56">
-        <v>-0.1631749062033443</v>
+        <v>-0.1494286332803569</v>
       </c>
       <c r="C56">
-        <v>0.01359870609011377</v>
+        <v>-0.07218747839722919</v>
       </c>
       <c r="D56">
-        <v>-0.03534079752482425</v>
+        <v>0.02906950035459305</v>
       </c>
       <c r="E56">
-        <v>0.07419743489276256</v>
+        <v>-0.009505957147454629</v>
       </c>
       <c r="F56">
-        <v>-0.2425348659607629</v>
+        <v>0.0255013210631018</v>
       </c>
       <c r="G56">
-        <v>0.07358678981603346</v>
+        <v>-0.2292648412781723</v>
       </c>
       <c r="H56">
-        <v>-0.03636219893212529</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>0.1018597398894682</v>
+      </c>
+      <c r="I56">
+        <v>-0.03159594148778827</v>
+      </c>
+      <c r="J56">
+        <v>0.05334346036918367</v>
+      </c>
+      <c r="K56">
+        <v>0.006227975481938696</v>
+      </c>
+      <c r="L56">
+        <v>-0.09195623750474216</v>
+      </c>
+      <c r="M56">
+        <v>0.05132942146569115</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
       <c r="A57" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2185,1102 +3040,1747 @@
       <c r="H57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:8">
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
       <c r="A58" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B58">
-        <v>-0.04300500777234494</v>
+        <v>-0.03519285564841106</v>
       </c>
       <c r="C58">
-        <v>0.02546399799300563</v>
+        <v>-0.03283068187990757</v>
       </c>
       <c r="D58">
-        <v>-0.002093555613062352</v>
+        <v>-0.08288597404965228</v>
       </c>
       <c r="E58">
-        <v>-0.3461061706015926</v>
+        <v>-0.01866417172190015</v>
       </c>
       <c r="F58">
-        <v>0.1536964775100856</v>
+        <v>-0.05185457136286339</v>
       </c>
       <c r="G58">
-        <v>0.03596600092507561</v>
+        <v>0.07940252216254068</v>
       </c>
       <c r="H58">
-        <v>-0.1873514633672147</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>-0.1299148315907341</v>
+      </c>
+      <c r="I58">
+        <v>-0.05093189372455027</v>
+      </c>
+      <c r="J58">
+        <v>-0.06941186472145125</v>
+      </c>
+      <c r="K58">
+        <v>-0.2638099609386658</v>
+      </c>
+      <c r="L58">
+        <v>0.4267057664337755</v>
+      </c>
+      <c r="M58">
+        <v>-0.1248788942740985</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
       <c r="A59" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B59">
-        <v>-0.2387886342990675</v>
+        <v>-0.2269313870488818</v>
       </c>
       <c r="C59">
-        <v>-0.4085954083714776</v>
+        <v>0.2991807008193386</v>
       </c>
       <c r="D59">
-        <v>-0.01719393860687044</v>
+        <v>0.04951010188648624</v>
       </c>
       <c r="E59">
-        <v>-0.0005522253317912496</v>
+        <v>-0.005490035232556809</v>
       </c>
       <c r="F59">
-        <v>-0.05883696748720133</v>
+        <v>-0.0320987480458222</v>
       </c>
       <c r="G59">
-        <v>-0.0467865154932872</v>
+        <v>-0.08108911924487075</v>
       </c>
       <c r="H59">
-        <v>0.07979754722208859</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>0.05748456150720562</v>
+      </c>
+      <c r="I59">
+        <v>-0.02729391299825272</v>
+      </c>
+      <c r="J59">
+        <v>-0.1105417538232613</v>
+      </c>
+      <c r="K59">
+        <v>0.006932497300566064</v>
+      </c>
+      <c r="L59">
+        <v>-0.0711621666128639</v>
+      </c>
+      <c r="M59">
+        <v>0.03090251380488624</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
       <c r="A60" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B60">
-        <v>-0.2532743151615007</v>
+        <v>-0.2426094000386486</v>
       </c>
       <c r="C60">
-        <v>0.06851414959575036</v>
+        <v>-0.1171201645231282</v>
       </c>
       <c r="D60">
-        <v>-0.09466653909799846</v>
+        <v>0.06297599365388658</v>
       </c>
       <c r="E60">
-        <v>-0.006032533713365962</v>
+        <v>-0.04933077321206247</v>
       </c>
       <c r="F60">
-        <v>0.05340552646866566</v>
+        <v>0.1093894495176048</v>
       </c>
       <c r="G60">
-        <v>0.0218230593931624</v>
+        <v>0.04607710023597714</v>
       </c>
       <c r="H60">
-        <v>-0.08429776257351639</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>-0.08247760178924694</v>
+      </c>
+      <c r="I60">
+        <v>-0.03562482188475727</v>
+      </c>
+      <c r="J60">
+        <v>0.04371785378999</v>
+      </c>
+      <c r="K60">
+        <v>-0.1612052859983066</v>
+      </c>
+      <c r="L60">
+        <v>-0.1645770759050877</v>
+      </c>
+      <c r="M60">
+        <v>0.05478261643748093</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
       <c r="A61" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B61">
-        <v>-0.08528031700804189</v>
+        <v>-0.09225580227583523</v>
       </c>
       <c r="C61">
-        <v>0.06438239550958051</v>
+        <v>-0.06857185013804268</v>
       </c>
       <c r="D61">
-        <v>-0.01377560115742399</v>
+        <v>0.04704964532338257</v>
       </c>
       <c r="E61">
-        <v>-0.00553852217317122</v>
+        <v>-0.01403226159977207</v>
       </c>
       <c r="F61">
-        <v>-0.01961864716680954</v>
+        <v>-0.1271699018070309</v>
       </c>
       <c r="G61">
-        <v>-0.01638524064350507</v>
+        <v>-0.06968625154617551</v>
       </c>
       <c r="H61">
-        <v>0.06681107856462934</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>-0.03002458629312505</v>
+      </c>
+      <c r="I61">
+        <v>0.05231094284864148</v>
+      </c>
+      <c r="J61">
+        <v>-0.05298912983319549</v>
+      </c>
+      <c r="K61">
+        <v>0.00209441188023429</v>
+      </c>
+      <c r="L61">
+        <v>0.07536999667454061</v>
+      </c>
+      <c r="M61">
+        <v>0.0153475401500103</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
       <c r="A62" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B62">
-        <v>-0.1585662906878215</v>
+        <v>-0.1401884104266505</v>
       </c>
       <c r="C62">
-        <v>0.05196072116460537</v>
+        <v>-0.07214575987649241</v>
       </c>
       <c r="D62">
-        <v>0.003045194866634704</v>
+        <v>0.02662519241636412</v>
       </c>
       <c r="E62">
-        <v>0.1397543526141304</v>
+        <v>0.03888903481158917</v>
       </c>
       <c r="F62">
-        <v>-0.2340713680360441</v>
+        <v>0.03352801240045335</v>
       </c>
       <c r="G62">
-        <v>-0.0001763131558200099</v>
+        <v>-0.171775383984503</v>
       </c>
       <c r="H62">
-        <v>0.01545778388247322</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>0.1303983830664772</v>
+      </c>
+      <c r="I62">
+        <v>-0.009376601966285467</v>
+      </c>
+      <c r="J62">
+        <v>0.1023852084184324</v>
+      </c>
+      <c r="K62">
+        <v>0.0426732454346317</v>
+      </c>
+      <c r="L62">
+        <v>-0.0996549465697489</v>
+      </c>
+      <c r="M62">
+        <v>-0.001854705329207735</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13">
       <c r="A63" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B63">
-        <v>-0.03878261683231658</v>
+        <v>-0.04589062139498871</v>
       </c>
       <c r="C63">
-        <v>0.04223067357510599</v>
+        <v>-0.03041229398144091</v>
       </c>
       <c r="D63">
-        <v>-0.00335049318341274</v>
+        <v>0.008303391129893449</v>
       </c>
       <c r="E63">
-        <v>-0.0001019753864267195</v>
+        <v>0.01290486269473739</v>
       </c>
       <c r="F63">
-        <v>-0.02410588926917391</v>
+        <v>-0.0689289468132129</v>
       </c>
       <c r="G63">
-        <v>-0.006630625167971914</v>
+        <v>-0.001951573644070372</v>
       </c>
       <c r="H63">
-        <v>-0.04405703497513026</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>-0.005050784167114297</v>
+      </c>
+      <c r="I63">
+        <v>-0.003831718687990919</v>
+      </c>
+      <c r="J63">
+        <v>0.04049494561459901</v>
+      </c>
+      <c r="K63">
+        <v>-0.003679965574917077</v>
+      </c>
+      <c r="L63">
+        <v>0.0467766330377403</v>
+      </c>
+      <c r="M63">
+        <v>-0.02000884820438726</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13">
       <c r="A64" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B64">
-        <v>-0.1033744873063435</v>
+        <v>-0.09881558244076456</v>
       </c>
       <c r="C64">
-        <v>0.0289965648378165</v>
+        <v>-0.04597103444248611</v>
       </c>
       <c r="D64">
-        <v>-0.03073601640867619</v>
+        <v>-0.004903626272840064</v>
       </c>
       <c r="E64">
-        <v>-0.04205447131452129</v>
+        <v>-0.0375267805389316</v>
       </c>
       <c r="F64">
-        <v>0.01650529576197569</v>
+        <v>-0.06886680986116341</v>
       </c>
       <c r="G64">
-        <v>-0.04639187287848148</v>
+        <v>0.004207609758386948</v>
       </c>
       <c r="H64">
-        <v>0.04312434327882896</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>-0.07040580994543424</v>
+      </c>
+      <c r="I64">
+        <v>0.02559299921788913</v>
+      </c>
+      <c r="J64">
+        <v>0.008318295900758851</v>
+      </c>
+      <c r="K64">
+        <v>0.01543198939764888</v>
+      </c>
+      <c r="L64">
+        <v>0.0340144668759351</v>
+      </c>
+      <c r="M64">
+        <v>0.02379237558010208</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13">
       <c r="A65" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B65">
-        <v>-0.1262404162031302</v>
+        <v>-0.1240173886940143</v>
       </c>
       <c r="C65">
-        <v>0.04700445223447948</v>
+        <v>-0.04529444584328201</v>
       </c>
       <c r="D65">
-        <v>-0.04430810493558797</v>
+        <v>0.005481351399836932</v>
       </c>
       <c r="E65">
-        <v>-0.09369862907321155</v>
+        <v>0.01748731903849218</v>
       </c>
       <c r="F65">
-        <v>0.1425531548438897</v>
+        <v>-0.01074845140164064</v>
       </c>
       <c r="G65">
-        <v>0.02505169188197625</v>
+        <v>0.2285193443270995</v>
       </c>
       <c r="H65">
-        <v>-0.6775934676310565</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>-0.2124565273851798</v>
+      </c>
+      <c r="I65">
+        <v>-0.3842174137509274</v>
+      </c>
+      <c r="J65">
+        <v>0.4764135670982159</v>
+      </c>
+      <c r="K65">
+        <v>-0.1928027902543685</v>
+      </c>
+      <c r="L65">
+        <v>-0.1117968602048783</v>
+      </c>
+      <c r="M65">
+        <v>0.1179825186968964</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13">
       <c r="A66" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B66">
-        <v>-0.1546486103074073</v>
+        <v>-0.1257371683146399</v>
       </c>
       <c r="C66">
-        <v>0.1363308132933272</v>
+        <v>-0.1328306800945291</v>
       </c>
       <c r="D66">
-        <v>-0.02779319285205481</v>
+        <v>0.09999238027246128</v>
       </c>
       <c r="E66">
-        <v>0.009717740605899998</v>
+        <v>0.03252071426788093</v>
       </c>
       <c r="F66">
-        <v>-0.04261404078996352</v>
+        <v>-0.160593756720214</v>
       </c>
       <c r="G66">
-        <v>-0.181963852733903</v>
+        <v>-0.07483117066114983</v>
       </c>
       <c r="H66">
-        <v>0.2580139308740043</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>-0.1007511491033339</v>
+      </c>
+      <c r="I66">
+        <v>0.1636250332433964</v>
+      </c>
+      <c r="J66">
+        <v>-0.1706253679526626</v>
+      </c>
+      <c r="K66">
+        <v>-0.04626966554626134</v>
+      </c>
+      <c r="L66">
+        <v>0.08646935333538605</v>
+      </c>
+      <c r="M66">
+        <v>0.1312095581193121</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13">
       <c r="A67" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B67">
-        <v>-0.07745788744010823</v>
+        <v>-0.08029190031111769</v>
       </c>
       <c r="C67">
-        <v>0.05089486287403792</v>
+        <v>-0.05765737450938834</v>
       </c>
       <c r="D67">
-        <v>-0.002560154459152648</v>
+        <v>-0.02209626435193189</v>
       </c>
       <c r="E67">
-        <v>-0.004533081545421065</v>
+        <v>-0.0163640988643536</v>
       </c>
       <c r="F67">
-        <v>0.0005892184258461699</v>
+        <v>0.05079076456189476</v>
       </c>
       <c r="G67">
-        <v>-0.007898836197054129</v>
+        <v>-0.0901422639219442</v>
       </c>
       <c r="H67">
-        <v>0.05858105020715692</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>-0.0465725468097776</v>
+      </c>
+      <c r="I67">
+        <v>0.06261974351024212</v>
+      </c>
+      <c r="J67">
+        <v>-0.01531195569723813</v>
+      </c>
+      <c r="K67">
+        <v>0.09589831796772086</v>
+      </c>
+      <c r="L67">
+        <v>-0.09800317758420238</v>
+      </c>
+      <c r="M67">
+        <v>0.08910675514021879</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13">
       <c r="A68" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B68">
-        <v>-0.09868505937816191</v>
+        <v>-0.1217008920143845</v>
       </c>
       <c r="C68">
-        <v>-0.2789875739653128</v>
+        <v>0.2735463239548722</v>
       </c>
       <c r="D68">
-        <v>0.01201886129621369</v>
+        <v>0.01064487444597757</v>
       </c>
       <c r="E68">
-        <v>-0.01361054205218546</v>
+        <v>-0.001537049857538095</v>
       </c>
       <c r="F68">
-        <v>-0.02888457931279806</v>
+        <v>-0.03784358002042827</v>
       </c>
       <c r="G68">
-        <v>0.03207751635934825</v>
+        <v>-0.02408044041843979</v>
       </c>
       <c r="H68">
-        <v>-0.01316723645003061</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>-0.01549193159619657</v>
+      </c>
+      <c r="I68">
+        <v>-0.03354742833890657</v>
+      </c>
+      <c r="J68">
+        <v>0.05314695552487887</v>
+      </c>
+      <c r="K68">
+        <v>-0.01290109931371884</v>
+      </c>
+      <c r="L68">
+        <v>0.02719760524948708</v>
+      </c>
+      <c r="M68">
+        <v>0.03681803872377055</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13">
       <c r="A69" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B69">
-        <v>-0.04137138039956688</v>
+        <v>-0.04244410216847494</v>
       </c>
       <c r="C69">
-        <v>0.03122810568759495</v>
+        <v>-0.02202383996611938</v>
       </c>
       <c r="D69">
-        <v>-0.005841855068422975</v>
+        <v>-0.007128408610213031</v>
       </c>
       <c r="E69">
-        <v>-0.01927535571688542</v>
+        <v>-0.0002014130298286692</v>
       </c>
       <c r="F69">
-        <v>-0.03303497241172875</v>
+        <v>-0.01772197720407528</v>
       </c>
       <c r="G69">
-        <v>-0.02929101332058498</v>
+        <v>-0.02358338300389241</v>
       </c>
       <c r="H69">
-        <v>-0.01028273204032545</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>-0.01365099603902161</v>
+      </c>
+      <c r="I69">
+        <v>0.01529273779037831</v>
+      </c>
+      <c r="J69">
+        <v>0.01880234752822722</v>
+      </c>
+      <c r="K69">
+        <v>0.008914037510014679</v>
+      </c>
+      <c r="L69">
+        <v>-0.01595848893343038</v>
+      </c>
+      <c r="M69">
+        <v>-0.07450816789425881</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13">
       <c r="A70" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B70">
-        <v>-0.05164408578774855</v>
+        <v>-0.05259278643155975</v>
       </c>
       <c r="C70">
-        <v>-0.003716944289784469</v>
+        <v>-0.03308073525018582</v>
       </c>
       <c r="D70">
-        <v>-0.03829837092401722</v>
+        <v>0.02276407284186159</v>
       </c>
       <c r="E70">
-        <v>0.008789702111404594</v>
+        <v>-0.01963412979530225</v>
       </c>
       <c r="F70">
-        <v>0.09891756615217412</v>
+        <v>0.00300290453569142</v>
       </c>
       <c r="G70">
-        <v>0.05209985471052087</v>
+        <v>0.06969052084843148</v>
       </c>
       <c r="H70">
-        <v>0.03713804249790079</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>0.01701220849443443</v>
+      </c>
+      <c r="I70">
+        <v>-0.03179816462191716</v>
+      </c>
+      <c r="J70">
+        <v>0.1186901935388318</v>
+      </c>
+      <c r="K70">
+        <v>0.2871966325673142</v>
+      </c>
+      <c r="L70">
+        <v>0.05432221067892969</v>
+      </c>
+      <c r="M70">
+        <v>-0.1223120033374254</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13">
       <c r="A71" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B71">
-        <v>-0.1041724272502926</v>
+        <v>-0.1363348126048244</v>
       </c>
       <c r="C71">
-        <v>-0.2826264990382721</v>
+        <v>0.2820810908528506</v>
       </c>
       <c r="D71">
-        <v>-0.02213827772987536</v>
+        <v>0.01496625269594761</v>
       </c>
       <c r="E71">
-        <v>-0.005895166076040565</v>
+        <v>-0.01948016796040613</v>
       </c>
       <c r="F71">
-        <v>-0.001361653093073981</v>
+        <v>-0.03669281874373262</v>
       </c>
       <c r="G71">
-        <v>0.01255917541964287</v>
+        <v>-0.02473545733074079</v>
       </c>
       <c r="H71">
-        <v>0.009306325571425555</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>-0.02791483388171673</v>
+      </c>
+      <c r="I71">
+        <v>0.004497661865006042</v>
+      </c>
+      <c r="J71">
+        <v>0.0263853410885023</v>
+      </c>
+      <c r="K71">
+        <v>-0.01201515178460253</v>
+      </c>
+      <c r="L71">
+        <v>0.01050221916488961</v>
+      </c>
+      <c r="M71">
+        <v>0.02650613327930595</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13">
       <c r="A72" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B72">
-        <v>-0.1780963840580044</v>
+        <v>-0.1427472108685632</v>
       </c>
       <c r="C72">
-        <v>0.03875555022832953</v>
+        <v>-0.03067119213355528</v>
       </c>
       <c r="D72">
-        <v>0.2414360807217815</v>
+        <v>-0.008123349463765283</v>
       </c>
       <c r="E72">
-        <v>0.053934497763282</v>
+        <v>0.1875260026259657</v>
       </c>
       <c r="F72">
-        <v>-0.01573174488502173</v>
+        <v>-0.03683310519475607</v>
       </c>
       <c r="G72">
-        <v>-0.08412229830047691</v>
+        <v>-0.01488868379398335</v>
       </c>
       <c r="H72">
-        <v>-0.1046635741913553</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>-0.02451183597465551</v>
+      </c>
+      <c r="I72">
+        <v>-0.05778515258546576</v>
+      </c>
+      <c r="J72">
+        <v>0.0687024456627761</v>
+      </c>
+      <c r="K72">
+        <v>-0.03849084535003598</v>
+      </c>
+      <c r="L72">
+        <v>-0.1325927578510983</v>
+      </c>
+      <c r="M72">
+        <v>0.01803889980965714</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13">
       <c r="A73" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B73">
-        <v>-0.2777444220436347</v>
+        <v>-0.2439391105231919</v>
       </c>
       <c r="C73">
-        <v>0.1832881681133207</v>
+        <v>-0.1470987135902876</v>
       </c>
       <c r="D73">
-        <v>-0.1251727856182694</v>
+        <v>0.1395905334459794</v>
       </c>
       <c r="E73">
-        <v>0.03399530287672092</v>
+        <v>-0.0870773741482946</v>
       </c>
       <c r="F73">
-        <v>0.1875243742011192</v>
+        <v>0.4531321262889321</v>
       </c>
       <c r="G73">
-        <v>0.007250398474245245</v>
+        <v>0.1006812122876899</v>
       </c>
       <c r="H73">
-        <v>-0.1774695017453762</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>-0.2809338925902015</v>
+      </c>
+      <c r="I73">
+        <v>0.2433693407832072</v>
+      </c>
+      <c r="J73">
+        <v>-0.1539978235242513</v>
+      </c>
+      <c r="K73">
+        <v>-0.2988645541034898</v>
+      </c>
+      <c r="L73">
+        <v>-0.04708427722288894</v>
+      </c>
+      <c r="M73">
+        <v>0.1107765077170415</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13">
       <c r="A74" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B74">
-        <v>-0.09519208825858473</v>
+        <v>-0.09434568013582741</v>
       </c>
       <c r="C74">
-        <v>0.0396662051025671</v>
+        <v>-0.07244829236621758</v>
       </c>
       <c r="D74">
-        <v>-0.005138206343556859</v>
+        <v>0.005518348632761458</v>
       </c>
       <c r="E74">
-        <v>0.0170372748419587</v>
+        <v>0.01356374151405766</v>
       </c>
       <c r="F74">
-        <v>-0.1433987873503016</v>
+        <v>0.03010145501935926</v>
       </c>
       <c r="G74">
-        <v>0.04959229622606023</v>
+        <v>-0.1497084324837213</v>
       </c>
       <c r="H74">
-        <v>-0.05670602603220127</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>0.01629023904047643</v>
+      </c>
+      <c r="I74">
+        <v>0.02748128510986102</v>
+      </c>
+      <c r="J74">
+        <v>0.04941843726101883</v>
+      </c>
+      <c r="K74">
+        <v>-0.02145607860734194</v>
+      </c>
+      <c r="L74">
+        <v>-0.01334052723084475</v>
+      </c>
+      <c r="M74">
+        <v>0.02277057286569993</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13">
       <c r="A75" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B75">
-        <v>-0.09203399012995202</v>
+        <v>-0.09335322875750651</v>
       </c>
       <c r="C75">
-        <v>0.01962058305513802</v>
+        <v>-0.05198276277771299</v>
       </c>
       <c r="D75">
-        <v>-0.009585131544865337</v>
+        <v>0.004813052236479134</v>
       </c>
       <c r="E75">
-        <v>0.03809694818990044</v>
+        <v>0.01174810415186757</v>
       </c>
       <c r="F75">
-        <v>-0.1156459103871608</v>
+        <v>0.01565267623784997</v>
       </c>
       <c r="G75">
-        <v>0.05231754476875949</v>
+        <v>-0.1077078454084525</v>
       </c>
       <c r="H75">
-        <v>-0.01642513722873356</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>0.07536375402391467</v>
+      </c>
+      <c r="I75">
+        <v>-0.04046272368940936</v>
+      </c>
+      <c r="J75">
+        <v>0.01636166341679735</v>
+      </c>
+      <c r="K75">
+        <v>-0.003209766989386231</v>
+      </c>
+      <c r="L75">
+        <v>-0.03138687506996308</v>
+      </c>
+      <c r="M75">
+        <v>-0.08214301810987494</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13">
       <c r="A76" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B76">
-        <v>-0.1344466225112351</v>
+        <v>-0.08950826206441469</v>
       </c>
       <c r="C76">
-        <v>0.02870181347396751</v>
+        <v>-0.06311653346681122</v>
       </c>
       <c r="D76">
-        <v>-0.0110342311606733</v>
+        <v>0.00111589183739046</v>
       </c>
       <c r="E76">
-        <v>0.0140257604370365</v>
+        <v>-0.005020098280908491</v>
       </c>
       <c r="F76">
-        <v>-0.2464421649210898</v>
+        <v>0.04082315460961582</v>
       </c>
       <c r="G76">
-        <v>0.07020336876402063</v>
+        <v>-0.2014881026688437</v>
       </c>
       <c r="H76">
-        <v>-0.05609383163908554</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>0.1121027142081622</v>
+      </c>
+      <c r="I76">
+        <v>-0.03982729224684312</v>
+      </c>
+      <c r="J76">
+        <v>0.04666294126806379</v>
+      </c>
+      <c r="K76">
+        <v>-0.02386328132553536</v>
+      </c>
+      <c r="L76">
+        <v>-0.02430841523489399</v>
+      </c>
+      <c r="M76">
+        <v>0.08068991583537946</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13">
       <c r="A77" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B77">
-        <v>-0.06975740316053956</v>
+        <v>-0.06984219967998838</v>
       </c>
       <c r="C77">
-        <v>0.03157730593365986</v>
+        <v>-0.02098487664333221</v>
       </c>
       <c r="D77">
-        <v>-0.03240021987686038</v>
+        <v>0.02206121667324273</v>
       </c>
       <c r="E77">
-        <v>-0.1640653867647084</v>
+        <v>-0.05109872528790772</v>
       </c>
       <c r="F77">
-        <v>0.1247506907143987</v>
+        <v>-0.2821824718541709</v>
       </c>
       <c r="G77">
-        <v>-0.6666511668648231</v>
+        <v>0.1368912952957192</v>
       </c>
       <c r="H77">
-        <v>0.08808201204505475</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>-0.3380265218484953</v>
+      </c>
+      <c r="I77">
+        <v>-0.02741004234689914</v>
+      </c>
+      <c r="J77">
+        <v>-0.3033759354267369</v>
+      </c>
+      <c r="K77">
+        <v>0.2982007301654581</v>
+      </c>
+      <c r="L77">
+        <v>-0.5488042811111342</v>
+      </c>
+      <c r="M77">
+        <v>0.01046163790718121</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13">
       <c r="A78" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B78">
-        <v>-0.1358879100271249</v>
+        <v>-0.1636472523237932</v>
       </c>
       <c r="C78">
-        <v>0.06922722034091132</v>
+        <v>-0.1250970452138015</v>
       </c>
       <c r="D78">
-        <v>-0.02196134089440531</v>
+        <v>-0.170533194419445</v>
       </c>
       <c r="E78">
-        <v>-0.1739363413767723</v>
+        <v>-0.1087538743255539</v>
       </c>
       <c r="F78">
-        <v>0.0349244416757717</v>
+        <v>-0.1375024098486313</v>
       </c>
       <c r="G78">
-        <v>-0.02656372555758726</v>
+        <v>0.2630232812310329</v>
       </c>
       <c r="H78">
-        <v>0.08684283240245995</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>0.450810360066297</v>
+      </c>
+      <c r="I78">
+        <v>-0.4429151299519997</v>
+      </c>
+      <c r="J78">
+        <v>-0.4679134199596168</v>
+      </c>
+      <c r="K78">
+        <v>-0.2415071466840475</v>
+      </c>
+      <c r="L78">
+        <v>-0.05402315584997852</v>
+      </c>
+      <c r="M78">
+        <v>0.09699366903157476</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13">
       <c r="A79" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B79">
-        <v>-0.1408835342578726</v>
+        <v>-0.1338709023299395</v>
       </c>
       <c r="C79">
-        <v>0.04971558411257792</v>
+        <v>-0.07619552951135436</v>
       </c>
       <c r="D79">
-        <v>-0.02107678117152371</v>
+        <v>0.0006014577933284621</v>
       </c>
       <c r="E79">
-        <v>0.05155586126461373</v>
+        <v>-0.002095757502500974</v>
       </c>
       <c r="F79">
-        <v>-0.1676229289501167</v>
+        <v>-0.008775255258224274</v>
       </c>
       <c r="G79">
-        <v>0.04277313670281892</v>
+        <v>-0.1662920868760818</v>
       </c>
       <c r="H79">
-        <v>-0.007922864361387838</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>0.07887954440500186</v>
+      </c>
+      <c r="I79">
+        <v>-0.009685247208124021</v>
+      </c>
+      <c r="J79">
+        <v>0.07456408601001109</v>
+      </c>
+      <c r="K79">
+        <v>0.005783278398603383</v>
+      </c>
+      <c r="L79">
+        <v>-0.07298281043754863</v>
+      </c>
+      <c r="M79">
+        <v>-0.01522034442835944</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13">
       <c r="A80" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B80">
-        <v>-0.02501767649714876</v>
+        <v>-0.05640664775560974</v>
       </c>
       <c r="C80">
-        <v>-0.001629493409676677</v>
+        <v>-0.02721840200507651</v>
       </c>
       <c r="D80">
-        <v>0.000114465105715877</v>
+        <v>0.06813696156833511</v>
       </c>
       <c r="E80">
-        <v>0.0419888724799618</v>
+        <v>-0.00742545403038275</v>
       </c>
       <c r="F80">
-        <v>0.003539419296786704</v>
+        <v>-0.02872359451999727</v>
       </c>
       <c r="G80">
-        <v>-0.01601536909562458</v>
+        <v>0.03452998094670978</v>
       </c>
       <c r="H80">
-        <v>-0.06592582940854932</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>0.004434139839036942</v>
+      </c>
+      <c r="I80">
+        <v>-0.02000946024742001</v>
+      </c>
+      <c r="J80">
+        <v>0.07970867964277509</v>
+      </c>
+      <c r="K80">
+        <v>-0.02453527799360921</v>
+      </c>
+      <c r="L80">
+        <v>0.1866162400431396</v>
+      </c>
+      <c r="M80">
+        <v>0.003693498617989011</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13">
       <c r="A81" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B81">
-        <v>-0.1123552798828013</v>
+        <v>-0.1224992791240566</v>
       </c>
       <c r="C81">
-        <v>0.05280156618438843</v>
+        <v>-0.0599784211491961</v>
       </c>
       <c r="D81">
-        <v>-0.02803033369134736</v>
+        <v>0.0007114054037513111</v>
       </c>
       <c r="E81">
-        <v>0.04226282710909164</v>
+        <v>-0.004737359568451382</v>
       </c>
       <c r="F81">
-        <v>-0.1066503150542864</v>
+        <v>-0.02969615740653412</v>
       </c>
       <c r="G81">
-        <v>0.02795067900320758</v>
+        <v>-0.1375070871888268</v>
       </c>
       <c r="H81">
-        <v>-0.02492658440342548</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>0.07999344653311526</v>
+      </c>
+      <c r="I81">
+        <v>0.009755221036947218</v>
+      </c>
+      <c r="J81">
+        <v>0.03399843643505841</v>
+      </c>
+      <c r="K81">
+        <v>-0.003969618349408273</v>
+      </c>
+      <c r="L81">
+        <v>-0.0356970829213547</v>
+      </c>
+      <c r="M81">
+        <v>-0.1128598788573408</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13">
       <c r="A82" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B82">
-        <v>-0.1115108303132273</v>
+        <v>-0.1174392165908513</v>
       </c>
       <c r="C82">
-        <v>0.02927027069645254</v>
+        <v>-0.05436091744479846</v>
       </c>
       <c r="D82">
-        <v>-0.05550581257628451</v>
+        <v>0.02452579012010009</v>
       </c>
       <c r="E82">
-        <v>0.07667469771911388</v>
+        <v>0.003733057727263358</v>
       </c>
       <c r="F82">
-        <v>-0.2634817457759186</v>
+        <v>0.01899910798262326</v>
       </c>
       <c r="G82">
-        <v>0.05081815558507592</v>
+        <v>-0.2395814223195786</v>
       </c>
       <c r="H82">
-        <v>0.02122497871371388</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>0.1168352383989293</v>
+      </c>
+      <c r="I82">
+        <v>0.0338067075952438</v>
+      </c>
+      <c r="J82">
+        <v>0.0433912426612091</v>
+      </c>
+      <c r="K82">
+        <v>0.06808942950111824</v>
+      </c>
+      <c r="L82">
+        <v>0.009549411237836349</v>
+      </c>
+      <c r="M82">
+        <v>-0.04302739872972959</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13">
       <c r="A83" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B83">
-        <v>-0.06367527081435903</v>
+        <v>-0.07527492538661661</v>
       </c>
       <c r="C83">
-        <v>0.04929352712506006</v>
+        <v>-0.07084993542013762</v>
       </c>
       <c r="D83">
-        <v>-0.03600227475517498</v>
+        <v>0.01686140899401526</v>
       </c>
       <c r="E83">
-        <v>0.001791124288074025</v>
+        <v>-0.009163855864534613</v>
       </c>
       <c r="F83">
-        <v>0.06005147789380523</v>
+        <v>-0.01962737640286426</v>
       </c>
       <c r="G83">
-        <v>-0.01968924950782406</v>
+        <v>-0.02610189622403846</v>
       </c>
       <c r="H83">
-        <v>0.08926920049754493</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>-0.07604936853083812</v>
+      </c>
+      <c r="I83">
+        <v>0.01196819897035559</v>
+      </c>
+      <c r="J83">
+        <v>-0.009189775237968831</v>
+      </c>
+      <c r="K83">
+        <v>0.1033138634369856</v>
+      </c>
+      <c r="L83">
+        <v>0.1119477638676357</v>
+      </c>
+      <c r="M83">
+        <v>0.05929744543448342</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13">
       <c r="A84" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B84">
-        <v>-0.05059493358798606</v>
+        <v>-0.04820368574349212</v>
       </c>
       <c r="C84">
-        <v>0.04781262797197625</v>
+        <v>0.02123338702104459</v>
       </c>
       <c r="D84">
-        <v>0.05944925121682604</v>
+        <v>0.006186299938656535</v>
       </c>
       <c r="E84">
-        <v>0.004948208891927636</v>
+        <v>0.02251565880376498</v>
       </c>
       <c r="F84">
-        <v>-0.03471468135257422</v>
+        <v>-0.005875491776407344</v>
       </c>
       <c r="G84">
-        <v>0.14927146543152</v>
+        <v>0.2106469256780692</v>
       </c>
       <c r="H84">
-        <v>0.02479404009004534</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>0.1517744723201155</v>
+      </c>
+      <c r="I84">
+        <v>0.1867621929911601</v>
+      </c>
+      <c r="J84">
+        <v>0.006227394643351427</v>
+      </c>
+      <c r="K84">
+        <v>0.05505405028344568</v>
+      </c>
+      <c r="L84">
+        <v>0.2150261075269385</v>
+      </c>
+      <c r="M84">
+        <v>0.5446320131624702</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13">
       <c r="A85" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B85">
-        <v>-0.08861348589236891</v>
+        <v>-0.1096619123448989</v>
       </c>
       <c r="C85">
-        <v>0.03924909499649226</v>
+        <v>-0.05066165908279004</v>
       </c>
       <c r="D85">
-        <v>-0.04925288217486799</v>
+        <v>0.009649674730351221</v>
       </c>
       <c r="E85">
-        <v>0.02762162141870726</v>
+        <v>-0.02908411697843624</v>
       </c>
       <c r="F85">
-        <v>-0.1969406651054351</v>
+        <v>-0.01068308898609351</v>
       </c>
       <c r="G85">
-        <v>0.003574758323735264</v>
+        <v>-0.1718583689766823</v>
       </c>
       <c r="H85">
-        <v>-0.05347798287920224</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>0.08041564366343341</v>
+      </c>
+      <c r="I85">
+        <v>-0.004543262032836502</v>
+      </c>
+      <c r="J85">
+        <v>0.07233675290243406</v>
+      </c>
+      <c r="K85">
+        <v>-0.01347593672854379</v>
+      </c>
+      <c r="L85">
+        <v>-0.09127816880132419</v>
+      </c>
+      <c r="M85">
+        <v>-0.03258599572196418</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13">
       <c r="A86" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B86">
-        <v>-0.04309063359024881</v>
+        <v>-0.07262669939412433</v>
       </c>
       <c r="C86">
-        <v>0.04247579816475722</v>
+        <v>-0.01661372260514102</v>
       </c>
       <c r="D86">
-        <v>-0.002197773992403747</v>
+        <v>-0.01333017627822364</v>
       </c>
       <c r="E86">
-        <v>-0.0425283033014664</v>
+        <v>-0.09958053099258495</v>
       </c>
       <c r="F86">
-        <v>0.04509137248599785</v>
+        <v>-0.04184443079830549</v>
       </c>
       <c r="G86">
-        <v>-0.06088325426468805</v>
+        <v>0.4095331896012826</v>
       </c>
       <c r="H86">
-        <v>-0.1096655756748681</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>0.4619321736514315</v>
+      </c>
+      <c r="I86">
+        <v>0.4827437511955505</v>
+      </c>
+      <c r="J86">
+        <v>0.2680074673458713</v>
+      </c>
+      <c r="K86">
+        <v>-0.004987833074340697</v>
+      </c>
+      <c r="L86">
+        <v>-0.2360348975694679</v>
+      </c>
+      <c r="M86">
+        <v>0.0112730748269136</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13">
       <c r="A87" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B87">
-        <v>-0.0916956547253982</v>
+        <v>-0.1128621652492239</v>
       </c>
       <c r="C87">
-        <v>0.056517639315845</v>
+        <v>-0.06717823933007508</v>
       </c>
       <c r="D87">
-        <v>-0.01934700443606884</v>
+        <v>-0.02836611638400646</v>
       </c>
       <c r="E87">
-        <v>-0.1001483888426597</v>
+        <v>-0.03464431409703711</v>
       </c>
       <c r="F87">
-        <v>0.0272239678071332</v>
+        <v>-0.1128454811402616</v>
       </c>
       <c r="G87">
-        <v>-0.1336445795293893</v>
+        <v>0.09321867242487719</v>
       </c>
       <c r="H87">
-        <v>0.05741989328681276</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>-0.1160121751296253</v>
+      </c>
+      <c r="I87">
+        <v>0.03625226382244701</v>
+      </c>
+      <c r="J87">
+        <v>-0.05167592930339827</v>
+      </c>
+      <c r="K87">
+        <v>0.1834629554544673</v>
+      </c>
+      <c r="L87">
+        <v>-0.06151245286287627</v>
+      </c>
+      <c r="M87">
+        <v>-0.04034508580456118</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13">
       <c r="A88" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B88">
-        <v>-0.05428590652944289</v>
+        <v>-0.05696801900142459</v>
       </c>
       <c r="C88">
-        <v>0.03983060954973757</v>
+        <v>-0.05481752598738475</v>
       </c>
       <c r="D88">
-        <v>-0.02419478388782536</v>
+        <v>0.02757857765977045</v>
       </c>
       <c r="E88">
-        <v>-0.01021355701642017</v>
+        <v>-0.01331188821349987</v>
       </c>
       <c r="F88">
-        <v>0.01170455933243209</v>
+        <v>-0.03415759774212793</v>
       </c>
       <c r="G88">
-        <v>-0.03053985120282223</v>
+        <v>-0.02623641791241706</v>
       </c>
       <c r="H88">
-        <v>0.03058583133941161</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>-0.01539353132577331</v>
+      </c>
+      <c r="I88">
+        <v>0.02751767575605721</v>
+      </c>
+      <c r="J88">
+        <v>0.008664581188146094</v>
+      </c>
+      <c r="K88">
+        <v>-0.009317024604632644</v>
+      </c>
+      <c r="L88">
+        <v>0.04466576128964787</v>
+      </c>
+      <c r="M88">
+        <v>-0.02109514148751945</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13">
       <c r="A89" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B89">
-        <v>-0.1702813542275357</v>
+        <v>-0.213994249010223</v>
       </c>
       <c r="C89">
-        <v>-0.3247502992136945</v>
+        <v>0.3593451210564759</v>
       </c>
       <c r="D89">
-        <v>-0.06128077846292534</v>
+        <v>-0.0383213568511426</v>
       </c>
       <c r="E89">
-        <v>-0.09034477578213451</v>
+        <v>-0.08166392462065424</v>
       </c>
       <c r="F89">
-        <v>0.04201280744459777</v>
+        <v>-0.01779009721638852</v>
       </c>
       <c r="G89">
-        <v>-0.01990596852980683</v>
+        <v>0.0002511815716880196</v>
       </c>
       <c r="H89">
-        <v>-0.001681234634699966</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>0.003573970065253981</v>
+      </c>
+      <c r="I89">
+        <v>0.02130955619334321</v>
+      </c>
+      <c r="J89">
+        <v>-0.05130572572891583</v>
+      </c>
+      <c r="K89">
+        <v>-0.03485030945921682</v>
+      </c>
+      <c r="L89">
+        <v>0.07574266763071938</v>
+      </c>
+      <c r="M89">
+        <v>-0.1054286108211049</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13">
       <c r="A90" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B90">
-        <v>-0.1234259463821651</v>
+        <v>-0.1469404556788167</v>
       </c>
       <c r="C90">
-        <v>-0.2783713257716595</v>
+        <v>0.2714536951335426</v>
       </c>
       <c r="D90">
-        <v>-0.006450054094989438</v>
+        <v>0.01444529404092082</v>
       </c>
       <c r="E90">
-        <v>-0.05239202376813262</v>
+        <v>-0.02288364720904518</v>
       </c>
       <c r="F90">
-        <v>0.04657863113061033</v>
+        <v>-0.03349707707696555</v>
       </c>
       <c r="G90">
-        <v>-0.1046924575701084</v>
+        <v>0.015471549305782</v>
       </c>
       <c r="H90">
-        <v>0.0415349512716209</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>-0.05765772933034839</v>
+      </c>
+      <c r="I90">
+        <v>0.02229588733737893</v>
+      </c>
+      <c r="J90">
+        <v>-0.01155217444273289</v>
+      </c>
+      <c r="K90">
+        <v>-0.02052548946136273</v>
+      </c>
+      <c r="L90">
+        <v>0.008114288761931966</v>
+      </c>
+      <c r="M90">
+        <v>0.0608560977256867</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13">
       <c r="A91" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B91">
-        <v>-0.08629774788354265</v>
+        <v>-0.07740154557238195</v>
       </c>
       <c r="C91">
-        <v>0.0207640459665654</v>
+        <v>-0.0543710591144419</v>
       </c>
       <c r="D91">
-        <v>-0.006784406969367946</v>
+        <v>-0.00796818206108782</v>
       </c>
       <c r="E91">
-        <v>-0.01862593847836962</v>
+        <v>-0.006131237142492246</v>
       </c>
       <c r="F91">
-        <v>-0.1077138604927805</v>
+        <v>0.01157192213094652</v>
       </c>
       <c r="G91">
-        <v>0.06232776676875446</v>
+        <v>-0.09053392328658307</v>
       </c>
       <c r="H91">
-        <v>-0.01812528835147626</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>0.06173804175879442</v>
+      </c>
+      <c r="I91">
+        <v>-0.007283215186173059</v>
+      </c>
+      <c r="J91">
+        <v>-0.002538349520181798</v>
+      </c>
+      <c r="K91">
+        <v>-0.02078104449523595</v>
+      </c>
+      <c r="L91">
+        <v>-0.01045819946727069</v>
+      </c>
+      <c r="M91">
+        <v>-0.006536454241779841</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13">
       <c r="A92" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B92">
-        <v>-0.1426840092898039</v>
+        <v>-0.1639600144362481</v>
       </c>
       <c r="C92">
-        <v>-0.3025895650618615</v>
+        <v>0.3020237475132235</v>
       </c>
       <c r="D92">
-        <v>-0.03840073666694298</v>
+        <v>-0.02873095074841754</v>
       </c>
       <c r="E92">
-        <v>-0.0385780666029648</v>
+        <v>-0.04757022091280058</v>
       </c>
       <c r="F92">
-        <v>0.02994551345789378</v>
+        <v>-0.03318844801383868</v>
       </c>
       <c r="G92">
-        <v>0.0858528756064582</v>
+        <v>-0.02537141171766244</v>
       </c>
       <c r="H92">
-        <v>-0.003781834837132574</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>0.005190232907760217</v>
+      </c>
+      <c r="I92">
+        <v>-0.006538044636450697</v>
+      </c>
+      <c r="J92">
+        <v>-0.01278302448155045</v>
+      </c>
+      <c r="K92">
+        <v>-0.02424513512660054</v>
+      </c>
+      <c r="L92">
+        <v>0.03834602779183535</v>
+      </c>
+      <c r="M92">
+        <v>-0.0818003634800463</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13">
       <c r="A93" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B93">
-        <v>-0.1378705266267336</v>
+        <v>-0.1637526461330581</v>
       </c>
       <c r="C93">
-        <v>-0.2584760708923113</v>
+        <v>0.2876413445124802</v>
       </c>
       <c r="D93">
-        <v>-0.01969299736988223</v>
+        <v>0.03224947815061498</v>
       </c>
       <c r="E93">
-        <v>-0.02038715818510813</v>
+        <v>-0.009701965959839262</v>
       </c>
       <c r="F93">
-        <v>0.03928130105498557</v>
+        <v>-0.01724369319592311</v>
       </c>
       <c r="G93">
-        <v>-0.01901422959733801</v>
+        <v>0.01404059770254229</v>
       </c>
       <c r="H93">
-        <v>0.01122996579260168</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>-0.006437282044719205</v>
+      </c>
+      <c r="I93">
+        <v>0.02288884529562836</v>
+      </c>
+      <c r="J93">
+        <v>0.0320755300168875</v>
+      </c>
+      <c r="K93">
+        <v>0.01103589593887498</v>
+      </c>
+      <c r="L93">
+        <v>0.02268642818906473</v>
+      </c>
+      <c r="M93">
+        <v>0.04590852212583008</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13">
       <c r="A94" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B94">
-        <v>-0.09007836727500036</v>
+        <v>-0.1087086410955635</v>
       </c>
       <c r="C94">
-        <v>0.05677436178932894</v>
+        <v>-0.07601826079793138</v>
       </c>
       <c r="D94">
-        <v>-0.006956175682199787</v>
+        <v>-0.01956809750561237</v>
       </c>
       <c r="E94">
-        <v>-0.0007394140489925841</v>
+        <v>-0.01389148710997814</v>
       </c>
       <c r="F94">
-        <v>-0.168237925942363</v>
+        <v>0.02778270758039516</v>
       </c>
       <c r="G94">
-        <v>0.08571989227897921</v>
+        <v>-0.1279883061601865</v>
       </c>
       <c r="H94">
-        <v>-0.04964322772149561</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>0.06617955259310423</v>
+      </c>
+      <c r="I94">
+        <v>-0.0298247808572767</v>
+      </c>
+      <c r="J94">
+        <v>0.02846388004009404</v>
+      </c>
+      <c r="K94">
+        <v>-0.05205861068478895</v>
+      </c>
+      <c r="L94">
+        <v>-0.005949923598639859</v>
+      </c>
+      <c r="M94">
+        <v>-0.03095788522018672</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13">
       <c r="A95" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B95">
-        <v>-0.1022396754997481</v>
+        <v>-0.1260664463047784</v>
       </c>
       <c r="C95">
-        <v>0.0736543962958109</v>
+        <v>-0.07136296237623271</v>
       </c>
       <c r="D95">
-        <v>-0.06396527798735002</v>
+        <v>-0.01690267001170064</v>
       </c>
       <c r="E95">
-        <v>-0.04839655425432793</v>
+        <v>-0.06322921223601408</v>
       </c>
       <c r="F95">
-        <v>0.03099005636225652</v>
+        <v>-0.08357688990594681</v>
       </c>
       <c r="G95">
-        <v>0.007640167392849517</v>
+        <v>0.2129133678901249</v>
       </c>
       <c r="H95">
-        <v>0.005287144884635831</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>-0.03397392768791009</v>
+      </c>
+      <c r="I95">
+        <v>0.1135629812614357</v>
+      </c>
+      <c r="J95">
+        <v>0.1296930670462277</v>
+      </c>
+      <c r="K95">
+        <v>-0.04332777413007449</v>
+      </c>
+      <c r="L95">
+        <v>0.07036965142338089</v>
+      </c>
+      <c r="M95">
+        <v>-0.5022201003398041</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13">
       <c r="A96" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B96">
-        <v>0</v>
+        <v>-0.0001755911058217398</v>
       </c>
       <c r="C96">
-        <v>0</v>
+        <v>-0.0005765614752352124</v>
       </c>
       <c r="D96">
-        <v>0</v>
+        <v>-2.063163456314541e-05</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>-0.0003990537644153364</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>-0.001364792245186234</v>
       </c>
       <c r="G96">
-        <v>0</v>
+        <v>-0.0002406770016815089</v>
       </c>
       <c r="H96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>0.0004759188857384656</v>
+      </c>
+      <c r="I96">
+        <v>0.0006128319856380714</v>
+      </c>
+      <c r="J96">
+        <v>0.0008453485285871417</v>
+      </c>
+      <c r="K96">
+        <v>-0.0003217101592757161</v>
+      </c>
+      <c r="L96">
+        <v>-0.0005359971028206006</v>
+      </c>
+      <c r="M96">
+        <v>0.0001036088647907594</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13">
       <c r="A97" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B97">
-        <v>-0.2528927578194756</v>
+        <v>-0.1616631780040279</v>
       </c>
       <c r="C97">
-        <v>0.03697924473277483</v>
+        <v>0.00391815142707057</v>
       </c>
       <c r="D97">
-        <v>0.8738922841765447</v>
+        <v>-0.1009924806709226</v>
       </c>
       <c r="E97">
-        <v>0.1582553523547418</v>
+        <v>0.930679317712749</v>
       </c>
       <c r="F97">
-        <v>0.1417596178073523</v>
+        <v>-0.03268425149576633</v>
       </c>
       <c r="G97">
-        <v>-0.0437181535179425</v>
+        <v>0.1138942892695358</v>
       </c>
       <c r="H97">
-        <v>0.003069646914428662</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>0.03000800770484248</v>
+      </c>
+      <c r="I97">
+        <v>0.06040146442860178</v>
+      </c>
+      <c r="J97">
+        <v>-0.06313060786256866</v>
+      </c>
+      <c r="K97">
+        <v>-0.01537283135135816</v>
+      </c>
+      <c r="L97">
+        <v>0.00326886585911772</v>
+      </c>
+      <c r="M97">
+        <v>-0.04899151256484245</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13">
       <c r="A98" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B98">
-        <v>-0.2848198015359899</v>
+        <v>-0.2665786613830728</v>
       </c>
       <c r="C98">
-        <v>0.1151827055866939</v>
+        <v>-0.1076818160082463</v>
       </c>
       <c r="D98">
-        <v>-0.1867166973256148</v>
+        <v>-0.001114133451306711</v>
       </c>
       <c r="E98">
-        <v>0.2665715475573956</v>
+        <v>-0.02117170951212002</v>
       </c>
       <c r="F98">
-        <v>0.4780974531273176</v>
+        <v>0.4586531193242545</v>
       </c>
       <c r="G98">
-        <v>0.395330111654194</v>
+        <v>0.1800171652697651</v>
       </c>
       <c r="H98">
-        <v>0.3222843381854217</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>0.04291161660830641</v>
+      </c>
+      <c r="I98">
+        <v>-0.2229895032233964</v>
+      </c>
+      <c r="J98">
+        <v>-0.1293111642931661</v>
+      </c>
+      <c r="K98">
+        <v>0.576655659991566</v>
+      </c>
+      <c r="L98">
+        <v>0.2519622990870409</v>
+      </c>
+      <c r="M98">
+        <v>-0.0608482859122873</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13">
       <c r="A99" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B99">
-        <v>-0.05688966906469549</v>
+        <v>-0.06634237191873807</v>
       </c>
       <c r="C99">
-        <v>0.05360792184169868</v>
+        <v>-0.05727760428038127</v>
       </c>
       <c r="D99">
-        <v>-0.05719132272071063</v>
+        <v>-0.006728855512568046</v>
       </c>
       <c r="E99">
-        <v>0.006172952226535777</v>
+        <v>-0.04554665962495803</v>
       </c>
       <c r="F99">
-        <v>0.02754721415614048</v>
+        <v>0.005150772750196878</v>
       </c>
       <c r="G99">
-        <v>-0.0162412377505485</v>
+        <v>-0.01721281090980756</v>
       </c>
       <c r="H99">
-        <v>0.08990614624253397</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>0.01481904633669077</v>
+      </c>
+      <c r="I99">
+        <v>0.003773484728764985</v>
+      </c>
+      <c r="J99">
+        <v>-0.06820035814751708</v>
+      </c>
+      <c r="K99">
+        <v>0.03632714365168516</v>
+      </c>
+      <c r="L99">
+        <v>-0.0561690065005581</v>
+      </c>
+      <c r="M99">
+        <v>-0.1063659055220305</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13">
       <c r="A100" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3303,36 +4803,66 @@
       <c r="H100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:8">
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+      <c r="L100">
+        <v>0</v>
+      </c>
+      <c r="M100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13">
       <c r="A101" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B101">
-        <v>-0.05283969280850022</v>
+        <v>-0.04356293350137234</v>
       </c>
       <c r="C101">
-        <v>0.02080704208958958</v>
+        <v>-0.02807699149796576</v>
       </c>
       <c r="D101">
-        <v>-0.008806462445914806</v>
+        <v>0.004138024596358967</v>
       </c>
       <c r="E101">
-        <v>-0.02402272868663093</v>
+        <v>-0.01909458666407652</v>
       </c>
       <c r="F101">
-        <v>0.001408750077918009</v>
+        <v>-0.06108101707759141</v>
       </c>
       <c r="G101">
-        <v>0.01488732721094661</v>
+        <v>-0.02542801748744598</v>
       </c>
       <c r="H101">
-        <v>-0.01872862196218975</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>0.02221358336502223</v>
+      </c>
+      <c r="I101">
+        <v>-0.004450358748735666</v>
+      </c>
+      <c r="J101">
+        <v>0.06092476203778639</v>
+      </c>
+      <c r="K101">
+        <v>0.0202796450609237</v>
+      </c>
+      <c r="L101">
+        <v>0.051213549493299</v>
+      </c>
+      <c r="M101">
+        <v>0.008788649732774736</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13">
       <c r="A102" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -3355,10 +4885,25 @@
       <c r="H102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:8">
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+      <c r="L102">
+        <v>0</v>
+      </c>
+      <c r="M102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13">
       <c r="A103" s="1" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -3381,10 +4926,25 @@
       <c r="H103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:8">
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+      <c r="L103">
+        <v>0</v>
+      </c>
+      <c r="M103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13">
       <c r="A104" s="1" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3405,6 +4965,21 @@
         <v>0</v>
       </c>
       <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
+        <v>0</v>
+      </c>
+      <c r="L104">
+        <v>0</v>
+      </c>
+      <c r="M104">
         <v>0</v>
       </c>
     </row>
